--- a/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>日期</t>
   </si>
@@ -159,16 +159,19 @@
     <t>7#焦侧</t>
   </si>
   <si>
+    <t>焦炉直行温度管控</t>
+  </si>
+  <si>
+    <t>月均偏差</t>
+  </si>
+  <si>
+    <t>天均偏差</t>
+  </si>
+  <si>
+    <t>7#机侧</t>
+  </si>
+  <si>
     <t>2018年9月焦炉直行温度管控</t>
-  </si>
-  <si>
-    <t>月均偏差</t>
-  </si>
-  <si>
-    <t>天均偏差</t>
-  </si>
-  <si>
-    <t>7#机侧</t>
   </si>
   <si>
     <t/>
@@ -544,12 +547,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -573,9 +577,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -585,8 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,7 +601,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,22 +676,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,37 +713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -684,42 +721,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -737,7 +741,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,31 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +849,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,55 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,50 +919,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -964,6 +968,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -980,6 +1021,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,64 +1078,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,140 +1096,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1262,11 +1279,29 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5377,7 +5412,7 @@
   <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5439,40 +5474,43 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="20">
+        <f>_metadata!B1</f>
+        <v>43432.4036458912</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="15" t="s">
@@ -5579,43 +5617,43 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17" t="e">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19" t="e">
         <f>IF(炉温记录27!Q5="","",炉温记录27!Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="17" t="e">
+      <c r="AC4" s="19" t="e">
         <f>IF(炉温记录28!Q5="","",炉温记录28!Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
       <c r="AG4" s="8" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
         <v>#DIV/0!</v>
@@ -5625,43 +5663,43 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17" t="e">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19" t="e">
         <f>IF(炉温记录27!Q6="","",炉温记录27!Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="17" t="e">
+      <c r="AC5" s="19" t="e">
         <f>IF(炉温记录28!Q6="","",炉温记录28!Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
       <c r="AG5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5671,43 +5709,43 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17" t="e">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19" t="e">
         <f>IF(炉温记录27!Q7="","",炉温记录27!Q7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="17" t="e">
+      <c r="AC6" s="19" t="e">
         <f>IF(炉温记录28!Q7="","",炉温记录28!Q7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
       <c r="AG6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5717,43 +5755,43 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17" t="e">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19" t="e">
         <f>IF(炉温记录27!Q8="","",炉温记录27!Q8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="17" t="e">
+      <c r="AC7" s="19" t="e">
         <f>IF(炉温记录28!Q8="","",炉温记录28!Q8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
       <c r="AG7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5763,43 +5801,43 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17" t="e">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19" t="e">
         <f>IF(炉温记录27!Q9="","",炉温记录27!Q9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="17" t="e">
+      <c r="AC8" s="19" t="e">
         <f>IF(炉温记录28!Q9="","",炉温记录28!Q9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
       <c r="AG8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5809,43 +5847,43 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17" t="e">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19" t="e">
         <f>IF(炉温记录27!Q10="","",炉温记录27!Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="17" t="e">
+      <c r="AC9" s="19" t="e">
         <f>IF(炉温记录28!Q10="","",炉温记录28!Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
       <c r="AG9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5855,43 +5893,43 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17" t="e">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19" t="e">
         <f>IF(炉温记录27!Q11="","",炉温记录27!Q11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="17" t="e">
+      <c r="AC10" s="19" t="e">
         <f>IF(炉温记录28!Q11="","",炉温记录28!Q11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
       <c r="AG10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5901,43 +5939,43 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17" t="e">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19" t="e">
         <f>IF(炉温记录27!Q12="","",炉温记录27!Q12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="17" t="e">
+      <c r="AC11" s="19" t="e">
         <f>IF(炉温记录28!Q12="","",炉温记录28!Q12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
       <c r="AG11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5947,43 +5985,43 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17" t="e">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19" t="e">
         <f>IF(炉温记录27!Q13="","",炉温记录27!Q13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="17" t="e">
+      <c r="AC12" s="19" t="e">
         <f>IF(炉温记录28!Q13="","",炉温记录28!Q13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AG12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5993,43 +6031,43 @@
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17" t="e">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19" t="e">
         <f>IF(炉温记录27!Q14="","",炉温记录27!Q14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="17" t="e">
+      <c r="AC13" s="19" t="e">
         <f>IF(炉温记录28!Q14="","",炉温记录28!Q14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
       <c r="AG13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6039,43 +6077,43 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17" t="e">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19" t="e">
         <f>IF(炉温记录27!Q15="","",炉温记录27!Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="17" t="e">
+      <c r="AC14" s="19" t="e">
         <f>IF(炉温记录28!Q15="","",炉温记录28!Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
       <c r="AG14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6085,43 +6123,43 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17" t="e">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19" t="e">
         <f>IF(炉温记录27!Q16="","",炉温记录27!Q16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="17" t="e">
+      <c r="AC15" s="19" t="e">
         <f>IF(炉温记录28!Q16="","",炉温记录28!Q16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
       <c r="AG15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6131,43 +6169,43 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17" t="e">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19" t="e">
         <f>IF(炉温记录27!Q17="","",炉温记录27!Q17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="17" t="e">
+      <c r="AC16" s="19" t="e">
         <f>IF(炉温记录28!Q17="","",炉温记录28!Q17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
       <c r="AG16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6177,43 +6215,43 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17" t="e">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19" t="e">
         <f>IF(炉温记录27!Q18="","",炉温记录27!Q18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="17" t="e">
+      <c r="AC17" s="19" t="e">
         <f>IF(炉温记录28!Q18="","",炉温记录28!Q18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
       <c r="AG17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6223,43 +6261,43 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17" t="e">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19" t="e">
         <f>IF(炉温记录27!Q19="","",炉温记录27!Q19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="17" t="e">
+      <c r="AC18" s="19" t="e">
         <f>IF(炉温记录28!Q19="","",炉温记录28!Q19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
       <c r="AG18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6269,43 +6307,43 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17" t="e">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19" t="e">
         <f>IF(炉温记录27!Q20="","",炉温记录27!Q20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="17" t="e">
+      <c r="AC19" s="19" t="e">
         <f>IF(炉温记录28!Q20="","",炉温记录28!Q20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
       <c r="AG19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6315,43 +6353,43 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17" t="e">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19" t="e">
         <f>IF(炉温记录27!Q21="","",炉温记录27!Q21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="17" t="e">
+      <c r="AC20" s="19" t="e">
         <f>IF(炉温记录28!Q21="","",炉温记录28!Q21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
       <c r="AG20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6361,43 +6399,43 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17" t="e">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19" t="e">
         <f>IF(炉温记录27!Q22="","",炉温记录27!Q22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="17" t="e">
+      <c r="AC21" s="19" t="e">
         <f>IF(炉温记录28!Q22="","",炉温记录28!Q22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
       <c r="AG21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6407,43 +6445,43 @@
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17" t="e">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19" t="e">
         <f>IF(炉温记录27!Q23="","",炉温记录27!Q23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="17" t="e">
+      <c r="AC22" s="19" t="e">
         <f>IF(炉温记录28!Q23="","",炉温记录28!Q23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
       <c r="AG22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6453,43 +6491,43 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17" t="e">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19" t="e">
         <f>IF(炉温记录27!Q24="","",炉温记录27!Q24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="17" t="e">
+      <c r="AC23" s="19" t="e">
         <f>IF(炉温记录28!Q24="","",炉温记录28!Q24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
       <c r="AG23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6499,43 +6537,43 @@
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17" t="e">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19" t="e">
         <f>IF(炉温记录27!Q25="","",炉温记录27!Q25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="17" t="e">
+      <c r="AC24" s="19" t="e">
         <f>IF(炉温记录28!Q25="","",炉温记录28!Q25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
       <c r="AG24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6545,43 +6583,43 @@
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17" t="e">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19" t="e">
         <f>IF(炉温记录27!Q26="","",炉温记录27!Q26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="17" t="e">
+      <c r="AC25" s="19" t="e">
         <f>IF(炉温记录28!Q26="","",炉温记录28!Q26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
       <c r="AG25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6591,43 +6629,43 @@
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17" t="e">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19" t="e">
         <f>IF(炉温记录27!Q27="","",炉温记录27!Q27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="17" t="e">
+      <c r="AC26" s="19" t="e">
         <f>IF(炉温记录28!Q27="","",炉温记录28!Q27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
       <c r="AG26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6637,43 +6675,43 @@
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17" t="e">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19" t="e">
         <f>IF(炉温记录27!Q28="","",炉温记录27!Q28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="17" t="e">
+      <c r="AC27" s="19" t="e">
         <f>IF(炉温记录28!Q28="","",炉温记录28!Q28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
       <c r="AG27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6683,43 +6721,43 @@
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17" t="e">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19" t="e">
         <f>IF(炉温记录27!Q29="","",炉温记录27!Q29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="17" t="e">
+      <c r="AC28" s="19" t="e">
         <f>IF(炉温记录28!Q29="","",炉温记录28!Q29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
       <c r="AG28" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6729,43 +6767,43 @@
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17" t="e">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19" t="e">
         <f>IF(炉温记录27!Q30="","",炉温记录27!Q30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="17" t="e">
+      <c r="AC29" s="19" t="e">
         <f>IF(炉温记录28!Q30="","",炉温记录28!Q30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
       <c r="AG29" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6775,43 +6813,43 @@
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17" t="e">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19" t="e">
         <f>IF(炉温记录27!Q31="","",炉温记录27!Q31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="17" t="e">
+      <c r="AC30" s="19" t="e">
         <f>IF(炉温记录28!Q31="","",炉温记录28!Q31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
       <c r="AG30" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6821,43 +6859,43 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17" t="e">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19" t="e">
         <f>IF(炉温记录27!Q32="","",炉温记录27!Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="17" t="e">
+      <c r="AC31" s="19" t="e">
         <f>IF(炉温记录28!Q32="","",炉温记录28!Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
       <c r="AG31" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6867,43 +6905,43 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17" t="e">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19" t="e">
         <f>IF(炉温记录27!Q33="","",炉温记录27!Q33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="17" t="e">
+      <c r="AC32" s="19" t="e">
         <f>IF(炉温记录28!Q33="","",炉温记录28!Q33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
       <c r="AG32" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6913,43 +6951,43 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17" t="e">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19" t="e">
         <f>IF(炉温记录27!Q34="","",炉温记录27!Q34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="17" t="e">
+      <c r="AC33" s="19" t="e">
         <f>IF(炉温记录28!Q34="","",炉温记录28!Q34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
       <c r="AG33" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6959,43 +6997,43 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17" t="e">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19" t="e">
         <f>IF(炉温记录27!Q35="","",炉温记录27!Q35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="17" t="e">
+      <c r="AC34" s="19" t="e">
         <f>IF(炉温记录28!Q35="","",炉温记录28!Q35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
       <c r="AG34" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7005,43 +7043,43 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17" t="e">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19" t="e">
         <f>IF(炉温记录27!Q36="","",炉温记录27!Q36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="17" t="e">
+      <c r="AC35" s="19" t="e">
         <f>IF(炉温记录28!Q36="","",炉温记录28!Q36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
       <c r="AG35" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7051,43 +7089,43 @@
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17" t="e">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19" t="e">
         <f>IF(炉温记录27!Q37="","",炉温记录27!Q37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="17" t="e">
+      <c r="AC36" s="19" t="e">
         <f>IF(炉温记录28!Q37="","",炉温记录28!Q37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
       <c r="AG36" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7097,43 +7135,43 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17" t="e">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19" t="e">
         <f>IF(炉温记录27!Q38="","",炉温记录27!Q38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="17" t="e">
+      <c r="AC37" s="19" t="e">
         <f>IF(炉温记录28!Q38="","",炉温记录28!Q38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
       <c r="AG37" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7143,43 +7181,43 @@
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17" t="e">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19" t="e">
         <f>IF(炉温记录27!Q39="","",炉温记录27!Q39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="17" t="e">
+      <c r="AC38" s="19" t="e">
         <f>IF(炉温记录28!Q39="","",炉温记录28!Q39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
       <c r="AG38" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7189,43 +7227,43 @@
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17" t="e">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19" t="e">
         <f>IF(炉温记录27!Q40="","",炉温记录27!Q40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="17" t="e">
+      <c r="AC39" s="19" t="e">
         <f>IF(炉温记录28!Q40="","",炉温记录28!Q40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
       <c r="AG39" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7235,43 +7273,43 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17" t="e">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19" t="e">
         <f>IF(炉温记录27!Q41="","",炉温记录27!Q41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC40" s="17" t="e">
+      <c r="AC40" s="19" t="e">
         <f>IF(炉温记录28!Q41="","",炉温记录28!Q41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
       <c r="AG40" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7281,43 +7319,43 @@
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17" t="e">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19" t="e">
         <f>IF(炉温记录27!Q42="","",炉温记录27!Q42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC41" s="17" t="e">
+      <c r="AC41" s="19" t="e">
         <f>IF(炉温记录28!Q42="","",炉温记录28!Q42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
       <c r="AG41" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7327,43 +7365,43 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17" t="e">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19" t="e">
         <f>IF(炉温记录27!Q43="","",炉温记录27!Q43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC42" s="17" t="e">
+      <c r="AC42" s="19" t="e">
         <f>IF(炉温记录28!Q43="","",炉温记录28!Q43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
       <c r="AG42" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7373,43 +7411,43 @@
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17" t="e">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19" t="e">
         <f>IF(炉温记录27!Q44="","",炉温记录27!Q44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC43" s="17" t="e">
+      <c r="AC43" s="19" t="e">
         <f>IF(炉温记录28!Q44="","",炉温记录28!Q44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
       <c r="AG43" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7419,43 +7457,43 @@
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17" t="e">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19" t="e">
         <f>IF(炉温记录27!Q45="","",炉温记录27!Q45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC44" s="17" t="e">
+      <c r="AC44" s="19" t="e">
         <f>IF(炉温记录28!Q45="","",炉温记录28!Q45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
       <c r="AG44" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7465,43 +7503,43 @@
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17" t="e">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19" t="e">
         <f>IF(炉温记录27!Q46="","",炉温记录27!Q46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC45" s="17" t="e">
+      <c r="AC45" s="19" t="e">
         <f>IF(炉温记录28!Q46="","",炉温记录28!Q46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
       <c r="AG45" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7511,43 +7549,43 @@
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17" t="e">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19" t="e">
         <f>IF(炉温记录27!Q47="","",炉温记录27!Q47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC46" s="17" t="e">
+      <c r="AC46" s="19" t="e">
         <f>IF(炉温记录28!Q47="","",炉温记录28!Q47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
       <c r="AG46" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7557,43 +7595,43 @@
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17" t="e">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19" t="e">
         <f>IF(炉温记录27!Q48="","",炉温记录27!Q48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC47" s="17" t="e">
+      <c r="AC47" s="19" t="e">
         <f>IF(炉温记录28!Q48="","",炉温记录28!Q48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
       <c r="AG47" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7603,43 +7641,43 @@
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17" t="e">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19" t="e">
         <f>IF(炉温记录27!Q49="","",炉温记录27!Q49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC48" s="17" t="e">
+      <c r="AC48" s="19" t="e">
         <f>IF(炉温记录28!Q49="","",炉温记录28!Q49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
       <c r="AG48" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7649,43 +7687,43 @@
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17" t="e">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19" t="e">
         <f>IF(炉温记录27!Q50="","",炉温记录27!Q50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="17" t="e">
+      <c r="AC49" s="19" t="e">
         <f>IF(炉温记录28!Q50="","",炉温记录28!Q50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
       <c r="AG49" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7695,43 +7733,43 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17" t="e">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19" t="e">
         <f>IF(炉温记录27!Q51="","",炉温记录27!Q51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="17" t="e">
+      <c r="AC50" s="19" t="e">
         <f>IF(炉温记录28!Q51="","",炉温记录28!Q51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
       <c r="AG50" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7741,43 +7779,43 @@
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17" t="e">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19" t="e">
         <f>IF(炉温记录27!Q52="","",炉温记录27!Q52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="17" t="e">
+      <c r="AC51" s="19" t="e">
         <f>IF(炉温记录28!Q52="","",炉温记录28!Q52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
       <c r="AG51" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7787,43 +7825,43 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17" t="e">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19" t="e">
         <f>IF(炉温记录27!Q53="","",炉温记录27!Q53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="17" t="e">
+      <c r="AC52" s="19" t="e">
         <f>IF(炉温记录28!Q53="","",炉温记录28!Q53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
       <c r="AG52" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7833,43 +7871,43 @@
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17" t="e">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19" t="e">
         <f>IF(炉温记录27!Q54="","",炉温记录27!Q54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC53" s="17" t="e">
+      <c r="AC53" s="19" t="e">
         <f>IF(炉温记录28!Q54="","",炉温记录28!Q54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
       <c r="AG53" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7879,43 +7917,43 @@
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17" t="e">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19" t="e">
         <f>IF(炉温记录27!Q55="","",炉温记录27!Q55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC54" s="17" t="e">
+      <c r="AC54" s="19" t="e">
         <f>IF(炉温记录28!Q55="","",炉温记录28!Q55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
       <c r="AG54" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7925,43 +7963,43 @@
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17" t="e">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19" t="e">
         <f>IF(炉温记录27!Q56="","",炉温记录27!Q56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC55" s="17" t="e">
+      <c r="AC55" s="19" t="e">
         <f>IF(炉温记录28!Q56="","",炉温记录28!Q56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
       <c r="AG55" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -7971,43 +8009,43 @@
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17" t="e">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19" t="e">
         <f>IF(炉温记录27!Q57="","",炉温记录27!Q57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC56" s="17" t="e">
+      <c r="AC56" s="19" t="e">
         <f>IF(炉温记录28!Q57="","",炉温记录28!Q57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
       <c r="AG56" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8017,43 +8055,43 @@
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17" t="e">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19" t="e">
         <f>IF(炉温记录27!Q58="","",炉温记录27!Q58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC57" s="17" t="e">
+      <c r="AC57" s="19" t="e">
         <f>IF(炉温记录28!Q58="","",炉温记录28!Q58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
       <c r="AG57" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8063,43 +8101,43 @@
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17" t="e">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19" t="e">
         <f>IF(炉温记录27!Q59="","",炉温记录27!Q59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="17" t="e">
+      <c r="AC58" s="19" t="e">
         <f>IF(炉温记录28!Q59="","",炉温记录28!Q59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
       <c r="AG58" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8109,43 +8147,43 @@
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17" t="e">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19" t="e">
         <f>IF(炉温记录27!Q60="","",炉温记录27!Q60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="17" t="e">
+      <c r="AC59" s="19" t="e">
         <f>IF(炉温记录28!Q60="","",炉温记录28!Q60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
       <c r="AG59" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -8290,8 +8328,11 @@
       <c r="AQ62" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:AG2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -8367,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -11390,10 +11431,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -11418,7 +11459,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -11438,7 +11479,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -11453,7 +11494,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -11472,7 +11513,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -11488,7 +11529,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -11506,7 +11547,7 @@
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -11523,7 +11564,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -11543,7 +11584,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -11558,7 +11599,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -11577,7 +11618,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -11593,7 +11634,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -11611,7 +11652,7 @@
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -11628,7 +11669,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -11647,7 +11688,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -11663,7 +11704,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -11685,7 +11726,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11698,7 +11739,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -11717,7 +11758,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -11733,7 +11774,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -11753,7 +11794,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -11768,7 +11809,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -11788,7 +11829,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -11803,7 +11844,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -11824,7 +11865,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8" t="e">
@@ -11838,7 +11879,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -11858,7 +11899,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -11873,7 +11914,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -11895,7 +11936,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="8" t="e">
         <f t="shared" si="2"/>
@@ -11908,7 +11949,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -11928,7 +11969,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -11943,7 +11984,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -11962,7 +12003,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -11978,7 +12019,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -12000,7 +12041,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12013,7 +12054,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -12033,7 +12074,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -12048,7 +12089,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -12067,7 +12108,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -12083,7 +12124,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -12101,11 +12142,11 @@
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -12120,7 +12161,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -12140,11 +12181,11 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P25" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12157,7 +12198,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -12175,10 +12216,10 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -12194,7 +12235,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -12212,10 +12253,10 @@
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -12231,7 +12272,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -12250,10 +12291,10 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -12268,7 +12309,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -12286,13 +12327,13 @@
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P29" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12305,7 +12346,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -12324,10 +12365,10 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -12342,7 +12383,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -12361,7 +12402,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -12377,7 +12418,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -12399,7 +12440,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P32" s="8" t="e">
         <f t="shared" si="2"/>
@@ -12412,7 +12453,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -12432,7 +12473,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -12447,12 +12488,12 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -12469,7 +12510,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -12484,7 +12525,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12492,7 +12533,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -12507,7 +12548,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8" t="e">
@@ -12521,13 +12562,13 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -12543,7 +12584,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -12558,11 +12599,11 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -12580,7 +12621,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -12595,12 +12636,12 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -12617,7 +12658,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -12632,11 +12673,11 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -12653,7 +12694,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -12669,13 +12710,13 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -12689,7 +12730,7 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -12706,11 +12747,11 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -12728,7 +12769,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -12743,12 +12784,12 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -12764,7 +12805,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -12780,7 +12821,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12788,7 +12829,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -12800,7 +12841,7 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -12817,13 +12858,13 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -12839,7 +12880,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -12854,11 +12895,11 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -12875,7 +12916,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -12891,13 +12932,13 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -12913,7 +12954,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -12928,13 +12969,13 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -12950,7 +12991,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -12965,12 +13006,12 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -12986,7 +13027,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -13002,7 +13043,7 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -13010,7 +13051,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -13024,7 +13065,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -13039,11 +13080,11 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -13062,7 +13103,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="e">
@@ -13076,14 +13117,14 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8" t="e">
@@ -13098,7 +13139,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -13113,13 +13154,13 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -13134,7 +13175,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -13150,13 +13191,13 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -13174,7 +13215,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P53" s="8" t="e">
         <f t="shared" si="2"/>
@@ -13187,10 +13228,10 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -13206,7 +13247,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -13224,13 +13265,13 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -13246,7 +13287,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -13261,13 +13302,13 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -13285,7 +13326,7 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P56" s="8" t="e">
         <f t="shared" si="2"/>
@@ -13298,7 +13339,7 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -13306,7 +13347,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H57" s="8" t="e">
         <f t="shared" si="0"/>
@@ -13320,7 +13361,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -13335,12 +13376,12 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -13356,7 +13397,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
@@ -13372,11 +13413,11 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -13396,7 +13437,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P59" s="8" t="e">
         <f t="shared" si="2"/>
@@ -13409,7 +13450,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -13417,7 +13458,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H60" s="8" t="e">
         <f t="shared" si="0"/>
@@ -14171,7 +14212,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1">
         <v>43432.4036458912</v>
@@ -14179,82 +14220,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -14408,10 +14449,10 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>21</v>
@@ -14436,7 +14477,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -14469,7 +14510,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -14502,7 +14543,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -14535,7 +14576,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -14568,7 +14609,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -14601,7 +14642,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -14634,7 +14675,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -14667,7 +14708,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -14700,7 +14741,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -14733,7 +14774,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -14766,7 +14807,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -14799,7 +14840,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -14832,7 +14873,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -14865,7 +14906,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -14898,7 +14939,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -14931,7 +14972,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -14964,7 +15005,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -14997,7 +15038,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -15030,7 +15071,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -15063,7 +15104,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -15096,7 +15137,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -15129,7 +15170,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -15162,7 +15203,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -15195,7 +15236,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -15228,7 +15269,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -15261,7 +15302,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -15294,7 +15335,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -15327,7 +15368,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -15360,7 +15401,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A33" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -15393,7 +15434,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -15426,7 +15467,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -15459,7 +15500,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -15492,7 +15533,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -15525,7 +15566,7 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -15558,7 +15599,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -15591,7 +15632,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -15624,7 +15665,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A41" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -15657,7 +15698,7 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A42" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -15690,7 +15731,7 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -15723,7 +15764,7 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -15756,7 +15797,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -15789,7 +15830,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A46" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -15822,7 +15863,7 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A47" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -15855,7 +15896,7 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A48" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -15888,7 +15929,7 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -15921,7 +15962,7 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A50" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -15954,7 +15995,7 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A51" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -15987,7 +16028,7 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A52" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -16020,7 +16061,7 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A53" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -16053,7 +16094,7 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A54" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -16086,7 +16127,7 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -16119,7 +16160,7 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A56" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -16152,7 +16193,7 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A57" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -16185,7 +16226,7 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A58" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -16218,7 +16259,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A59" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -16251,7 +16292,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A60" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>

--- a/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="174">
   <si>
     <t>日期</t>
   </si>
@@ -546,16 +546,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +561,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -573,160 +569,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,192 +596,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -980,256 +661,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1276,86 +715,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1366,7 +761,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1380,7 +775,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1572,7 +967,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -1755,7 +1150,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1769,7 +1164,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1961,7 +1356,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -2144,7 +1539,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2158,7 +1553,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2350,7 +1745,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -2784,19 +2179,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
@@ -2806,7 +2201,7 @@
     <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2833,30 +2228,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2954,7 +2349,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2985,7 +2380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3016,7 +2411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3047,7 +2442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3078,7 +2473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3109,7 +2504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3140,7 +2535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3171,7 +2566,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3202,7 +2597,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3233,7 +2628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3264,7 +2659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3295,7 +2690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3326,7 +2721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3357,7 +2752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3388,7 +2783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3419,7 +2814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3450,7 +2845,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3481,7 +2876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3512,7 +2907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3543,7 +2938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3574,7 +2969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3605,7 +3000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3636,7 +3031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3667,7 +3062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3698,7 +3093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3729,7 +3124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3760,7 +3155,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3791,7 +3186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3822,7 +3217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3853,7 +3248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3884,7 +3279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3915,7 +3310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3946,7 +3341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3977,7 +3372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4008,7 +3403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4039,7 +3434,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4070,7 +3465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4101,7 +3496,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4132,7 +3527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4163,7 +3558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4194,7 +3589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4225,7 +3620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4256,7 +3651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4287,7 +3682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4318,7 +3713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4349,7 +3744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4380,7 +3775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4411,7 +3806,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4442,7 +3837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4473,7 +3868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4504,7 +3899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4535,7 +3930,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4566,7 +3961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4597,7 +3992,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4628,7 +4023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4659,7 +4054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4690,184 +4085,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -4875,7 +4270,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -4938,7 +4333,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -5001,7 +4396,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +4458,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -5112,7 +4507,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -5175,10 +4570,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -5202,7 +4597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -5215,7 +4610,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -5236,7 +4631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -5249,7 +4644,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -5270,7 +4665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -5283,7 +4678,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -5304,7 +4699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +4721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="16364:16384">
+    <row r="90" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ90" s="2"/>
       <c r="XEK90" s="2"/>
       <c r="XEL90" s="2"/>
@@ -5349,7 +4744,7 @@
       <c r="XFC90" s="2"/>
       <c r="XFD90" s="2"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="16364:16384">
+    <row r="96" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ96" s="2"/>
       <c r="XEK96" s="2"/>
       <c r="XEL96" s="2"/>
@@ -5372,7 +4767,7 @@
       <c r="XFC96" s="2"/>
       <c r="XFD96" s="2"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="16364:16384">
+    <row r="104" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ104" s="2"/>
       <c r="XEK104" s="2"/>
       <c r="XEL104" s="2"/>
@@ -5400,22 +4795,21 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -5431,7 +4825,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -5470,49 +4864,49 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="20">
-        <f>_metadata!B1</f>
-        <v>43432.4036458912</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="25" t="str">
+        <f>_metadata!B2</f>
+        <v>CK67-7#炉温记录从动态管控系统读取报表</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="24"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+      <c r="R2" s="22"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="23"/>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -5613,2583 +5007,2605 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19" t="e">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16" t="e">
         <f>IF(炉温记录27!Q5="","",炉温记录27!Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="19" t="e">
+      <c r="AC4" s="16" t="e">
         <f>IF(炉温记录28!Q5="","",炉温记录28!Q5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="8" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19" t="e">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16" t="e">
         <f>IF(炉温记录27!Q6="","",炉温记录27!Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="19" t="e">
+      <c r="AC5" s="16" t="e">
         <f>IF(炉温记录28!Q6="","",炉温记录28!Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19" t="e">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="e">
         <f>IF(炉温记录27!Q7="","",炉温记录27!Q7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="19" t="e">
+      <c r="AC6" s="16" t="e">
         <f>IF(炉温记录28!Q7="","",炉温记录28!Q7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
       <c r="AG6" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19" t="e">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="e">
         <f>IF(炉温记录27!Q8="","",炉温记录27!Q8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="19" t="e">
+      <c r="AC7" s="16" t="e">
         <f>IF(炉温记录28!Q8="","",炉温记录28!Q8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19" t="e">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16" t="e">
         <f>IF(炉温记录27!Q9="","",炉温记录27!Q9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="19" t="e">
+      <c r="AC8" s="16" t="e">
         <f>IF(炉温记录28!Q9="","",炉温记录28!Q9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19" t="e">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="e">
         <f>IF(炉温记录27!Q10="","",炉温记录27!Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="19" t="e">
+      <c r="AC9" s="16" t="e">
         <f>IF(炉温记录28!Q10="","",炉温记录28!Q10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
       <c r="AG9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19" t="e">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16" t="e">
         <f>IF(炉温记录27!Q11="","",炉温记录27!Q11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="19" t="e">
+      <c r="AC10" s="16" t="e">
         <f>IF(炉温记录28!Q11="","",炉温记录28!Q11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
       <c r="AG10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19" t="e">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16" t="e">
         <f>IF(炉温记录27!Q12="","",炉温记录27!Q12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="19" t="e">
+      <c r="AC11" s="16" t="e">
         <f>IF(炉温记录28!Q12="","",炉温记录28!Q12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
       <c r="AG11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19" t="e">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16" t="e">
         <f>IF(炉温记录27!Q13="","",炉温记录27!Q13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="19" t="e">
+      <c r="AC12" s="16" t="e">
         <f>IF(炉温记录28!Q13="","",炉温记录28!Q13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19" t="e">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16" t="e">
         <f>IF(炉温记录27!Q14="","",炉温记录27!Q14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="19" t="e">
+      <c r="AC13" s="16" t="e">
         <f>IF(炉温记录28!Q14="","",炉温记录28!Q14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
       <c r="AG13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19" t="e">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16" t="e">
         <f>IF(炉温记录27!Q15="","",炉温记录27!Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="19" t="e">
+      <c r="AC14" s="16" t="e">
         <f>IF(炉温记录28!Q15="","",炉温记录28!Q15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
       <c r="AG14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19" t="e">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16" t="e">
         <f>IF(炉温记录27!Q16="","",炉温记录27!Q16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC15" s="19" t="e">
+      <c r="AC15" s="16" t="e">
         <f>IF(炉温记录28!Q16="","",炉温记录28!Q16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
       <c r="AG15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19" t="e">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16" t="e">
         <f>IF(炉温记录27!Q17="","",炉温记录27!Q17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC16" s="19" t="e">
+      <c r="AC16" s="16" t="e">
         <f>IF(炉温记录28!Q17="","",炉温记录28!Q17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
       <c r="AG16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19" t="e">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16" t="e">
         <f>IF(炉温记录27!Q18="","",炉温记录27!Q18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="19" t="e">
+      <c r="AC17" s="16" t="e">
         <f>IF(炉温记录28!Q18="","",炉温记录28!Q18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
       <c r="AG17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19" t="e">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16" t="e">
         <f>IF(炉温记录27!Q19="","",炉温记录27!Q19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="19" t="e">
+      <c r="AC18" s="16" t="e">
         <f>IF(炉温记录28!Q19="","",炉温记录28!Q19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
       <c r="AG18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19" t="e">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16" t="e">
         <f>IF(炉温记录27!Q20="","",炉温记录27!Q20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC19" s="19" t="e">
+      <c r="AC19" s="16" t="e">
         <f>IF(炉温记录28!Q20="","",炉温记录28!Q20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
       <c r="AG19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19" t="e">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16" t="e">
         <f>IF(炉温记录27!Q21="","",炉温记录27!Q21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC20" s="19" t="e">
+      <c r="AC20" s="16" t="e">
         <f>IF(炉温记录28!Q21="","",炉温记录28!Q21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
       <c r="AG20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19" t="e">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16" t="e">
         <f>IF(炉温记录27!Q22="","",炉温记录27!Q22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="19" t="e">
+      <c r="AC21" s="16" t="e">
         <f>IF(炉温记录28!Q22="","",炉温记录28!Q22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19" t="e">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="e">
         <f>IF(炉温记录27!Q23="","",炉温记录27!Q23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="19" t="e">
+      <c r="AC22" s="16" t="e">
         <f>IF(炉温记录28!Q23="","",炉温记录28!Q23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
       <c r="AG22" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19" t="e">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16" t="e">
         <f>IF(炉温记录27!Q24="","",炉温记录27!Q24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="19" t="e">
+      <c r="AC23" s="16" t="e">
         <f>IF(炉温记录28!Q24="","",炉温记录28!Q24)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
       <c r="AG23" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19" t="e">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16" t="e">
         <f>IF(炉温记录27!Q25="","",炉温记录27!Q25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="19" t="e">
+      <c r="AC24" s="16" t="e">
         <f>IF(炉温记录28!Q25="","",炉温记录28!Q25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
       <c r="AG24" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19" t="e">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16" t="e">
         <f>IF(炉温记录27!Q26="","",炉温记录27!Q26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="19" t="e">
+      <c r="AC25" s="16" t="e">
         <f>IF(炉温记录28!Q26="","",炉温记录28!Q26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
       <c r="AG25" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19" t="e">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16" t="e">
         <f>IF(炉温记录27!Q27="","",炉温记录27!Q27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="19" t="e">
+      <c r="AC26" s="16" t="e">
         <f>IF(炉温记录28!Q27="","",炉温记录28!Q27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
       <c r="AG26" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19" t="e">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16" t="e">
         <f>IF(炉温记录27!Q28="","",炉温记录27!Q28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="19" t="e">
+      <c r="AC27" s="16" t="e">
         <f>IF(炉温记录28!Q28="","",炉温记录28!Q28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
       <c r="AG27" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19" t="e">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16" t="e">
         <f>IF(炉温记录27!Q29="","",炉温记录27!Q29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="19" t="e">
+      <c r="AC28" s="16" t="e">
         <f>IF(炉温记录28!Q29="","",炉温记录28!Q29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
       <c r="AG28" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19" t="e">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16" t="e">
         <f>IF(炉温记录27!Q30="","",炉温记录27!Q30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="19" t="e">
+      <c r="AC29" s="16" t="e">
         <f>IF(炉温记录28!Q30="","",炉温记录28!Q30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
       <c r="AG29" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19" t="e">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16" t="e">
         <f>IF(炉温记录27!Q31="","",炉温记录27!Q31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="19" t="e">
+      <c r="AC30" s="16" t="e">
         <f>IF(炉温记录28!Q31="","",炉温记录28!Q31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
       <c r="AG30" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19" t="e">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16" t="e">
         <f>IF(炉温记录27!Q32="","",炉温记录27!Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="19" t="e">
+      <c r="AC31" s="16" t="e">
         <f>IF(炉温记录28!Q32="","",炉温记录28!Q32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
       <c r="AG31" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19" t="e">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16" t="e">
         <f>IF(炉温记录27!Q33="","",炉温记录27!Q33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC32" s="19" t="e">
+      <c r="AC32" s="16" t="e">
         <f>IF(炉温记录28!Q33="","",炉温记录28!Q33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
       <c r="AG32" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19" t="e">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16" t="e">
         <f>IF(炉温记录27!Q34="","",炉温记录27!Q34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC33" s="19" t="e">
+      <c r="AC33" s="16" t="e">
         <f>IF(炉温记录28!Q34="","",炉温记录28!Q34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
       <c r="AG33" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19" t="e">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16" t="e">
         <f>IF(炉温记录27!Q35="","",炉温记录27!Q35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="19" t="e">
+      <c r="AC34" s="16" t="e">
         <f>IF(炉温记录28!Q35="","",炉温记录28!Q35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
       <c r="AG34" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19" t="e">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16" t="e">
         <f>IF(炉温记录27!Q36="","",炉温记录27!Q36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC35" s="19" t="e">
+      <c r="AC35" s="16" t="e">
         <f>IF(炉温记录28!Q36="","",炉温记录28!Q36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
       <c r="AG35" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19" t="e">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16" t="e">
         <f>IF(炉温记录27!Q37="","",炉温记录27!Q37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC36" s="19" t="e">
+      <c r="AC36" s="16" t="e">
         <f>IF(炉温记录28!Q37="","",炉温记录28!Q37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
       <c r="AG36" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19" t="e">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16" t="e">
         <f>IF(炉温记录27!Q38="","",炉温记录27!Q38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC37" s="19" t="e">
+      <c r="AC37" s="16" t="e">
         <f>IF(炉温记录28!Q38="","",炉温记录28!Q38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
       <c r="AG37" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19" t="e">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16" t="e">
         <f>IF(炉温记录27!Q39="","",炉温记录27!Q39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC38" s="19" t="e">
+      <c r="AC38" s="16" t="e">
         <f>IF(炉温记录28!Q39="","",炉温记录28!Q39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
       <c r="AG38" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19" t="e">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16" t="e">
         <f>IF(炉温记录27!Q40="","",炉温记录27!Q40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="19" t="e">
+      <c r="AC39" s="16" t="e">
         <f>IF(炉温记录28!Q40="","",炉温记录28!Q40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
       <c r="AG39" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19" t="e">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16" t="e">
         <f>IF(炉温记录27!Q41="","",炉温记录27!Q41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC40" s="19" t="e">
+      <c r="AC40" s="16" t="e">
         <f>IF(炉温记录28!Q41="","",炉温记录28!Q41)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19" t="e">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16" t="e">
         <f>IF(炉温记录27!Q42="","",炉温记录27!Q42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC41" s="19" t="e">
+      <c r="AC41" s="16" t="e">
         <f>IF(炉温记录28!Q42="","",炉温记录28!Q42)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
       <c r="AG41" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19" t="e">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16" t="e">
         <f>IF(炉温记录27!Q43="","",炉温记录27!Q43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC42" s="19" t="e">
+      <c r="AC42" s="16" t="e">
         <f>IF(炉温记录28!Q43="","",炉温记录28!Q43)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
       <c r="AG42" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:33">
+    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19" t="e">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16" t="e">
         <f>IF(炉温记录27!Q44="","",炉温记录27!Q44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC43" s="19" t="e">
+      <c r="AC43" s="16" t="e">
         <f>IF(炉温记录28!Q44="","",炉温记录28!Q44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
       <c r="AG43" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:33">
+    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19" t="e">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16" t="e">
         <f>IF(炉温记录27!Q45="","",炉温记录27!Q45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC44" s="19" t="e">
+      <c r="AC44" s="16" t="e">
         <f>IF(炉温记录28!Q45="","",炉温记录28!Q45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
       <c r="AG44" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:33">
+    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19" t="e">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16" t="e">
         <f>IF(炉温记录27!Q46="","",炉温记录27!Q46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC45" s="19" t="e">
+      <c r="AC45" s="16" t="e">
         <f>IF(炉温记录28!Q46="","",炉温记录28!Q46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
       <c r="AG45" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:33">
+    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19" t="e">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16" t="e">
         <f>IF(炉温记录27!Q47="","",炉温记录27!Q47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC46" s="19" t="e">
+      <c r="AC46" s="16" t="e">
         <f>IF(炉温记录28!Q47="","",炉温记录28!Q47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
       <c r="AG46" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:33">
+    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19" t="e">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16" t="e">
         <f>IF(炉温记录27!Q48="","",炉温记录27!Q48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC47" s="19" t="e">
+      <c r="AC47" s="16" t="e">
         <f>IF(炉温记录28!Q48="","",炉温记录28!Q48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
       <c r="AG47" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:33">
+    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19" t="e">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16" t="e">
         <f>IF(炉温记录27!Q49="","",炉温记录27!Q49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC48" s="19" t="e">
+      <c r="AC48" s="16" t="e">
         <f>IF(炉温记录28!Q49="","",炉温记录28!Q49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
       <c r="AG48" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:33">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19" t="e">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16" t="e">
         <f>IF(炉温记录27!Q50="","",炉温记录27!Q50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC49" s="19" t="e">
+      <c r="AC49" s="16" t="e">
         <f>IF(炉温记录28!Q50="","",炉温记录28!Q50)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
       <c r="AG49" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:33">
+      <c r="AM49" s="1"/>
+      <c r="AQ49" s="1"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19" t="e">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16" t="e">
         <f>IF(炉温记录27!Q51="","",炉温记录27!Q51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC50" s="19" t="e">
+      <c r="AC50" s="16" t="e">
         <f>IF(炉温记录28!Q51="","",炉温记录28!Q51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
       <c r="AG50" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:33">
+      <c r="AM50" s="1"/>
+      <c r="AQ50" s="1"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19" t="e">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16" t="e">
         <f>IF(炉温记录27!Q52="","",炉温记录27!Q52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC51" s="19" t="e">
+      <c r="AC51" s="16" t="e">
         <f>IF(炉温记录28!Q52="","",炉温记录28!Q52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
       <c r="AG51" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:33">
+      <c r="AM51" s="1"/>
+      <c r="AQ51" s="1"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19" t="e">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16" t="e">
         <f>IF(炉温记录27!Q53="","",炉温记录27!Q53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC52" s="19" t="e">
+      <c r="AC52" s="16" t="e">
         <f>IF(炉温记录28!Q53="","",炉温记录28!Q53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
       <c r="AG52" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:33">
+      <c r="AM52" s="1"/>
+      <c r="AQ52" s="1"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19" t="e">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16" t="e">
         <f>IF(炉温记录27!Q54="","",炉温记录27!Q54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC53" s="19" t="e">
+      <c r="AC53" s="16" t="e">
         <f>IF(炉温记录28!Q54="","",炉温记录28!Q54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
       <c r="AG53" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:33">
+      <c r="AM53" s="1"/>
+      <c r="AQ53" s="1"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19" t="e">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16" t="e">
         <f>IF(炉温记录27!Q55="","",炉温记录27!Q55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC54" s="19" t="e">
+      <c r="AC54" s="16" t="e">
         <f>IF(炉温记录28!Q55="","",炉温记录28!Q55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
       <c r="AG54" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:33">
+      <c r="AM54" s="1"/>
+      <c r="AQ54" s="1"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19" t="e">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16" t="e">
         <f>IF(炉温记录27!Q56="","",炉温记录27!Q56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC55" s="19" t="e">
+      <c r="AC55" s="16" t="e">
         <f>IF(炉温记录28!Q56="","",炉温记录28!Q56)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
       <c r="AG55" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:33">
+      <c r="AM55" s="1"/>
+      <c r="AQ55" s="1"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19" t="e">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16" t="e">
         <f>IF(炉温记录27!Q57="","",炉温记录27!Q57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC56" s="19" t="e">
+      <c r="AC56" s="16" t="e">
         <f>IF(炉温记录28!Q57="","",炉温记录28!Q57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
       <c r="AG56" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:33">
+      <c r="AM56" s="1"/>
+      <c r="AQ56" s="1"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19" t="e">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16" t="e">
         <f>IF(炉温记录27!Q58="","",炉温记录27!Q58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC57" s="19" t="e">
+      <c r="AC57" s="16" t="e">
         <f>IF(炉温记录28!Q58="","",炉温记录28!Q58)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
       <c r="AG57" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:33">
+      <c r="AM57" s="1"/>
+      <c r="AQ57" s="1"/>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19" t="e">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16" t="e">
         <f>IF(炉温记录27!Q59="","",炉温记录27!Q59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC58" s="19" t="e">
+      <c r="AC58" s="16" t="e">
         <f>IF(炉温记录28!Q59="","",炉温记录28!Q59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
       <c r="AG58" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:33">
+      <c r="AM58" s="1"/>
+      <c r="AQ58" s="1"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19" t="e">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16" t="e">
         <f>IF(炉温记录27!Q60="","",炉温记录27!Q60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC59" s="19" t="e">
+      <c r="AC59" s="16" t="e">
         <f>IF(炉温记录28!Q60="","",炉温记录28!Q60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
       <c r="AG59" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:33">
+      <c r="AM59" s="1"/>
+      <c r="AQ59" s="1"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -8318,12 +7734,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="39:43">
+      <c r="AM60" s="1"/>
+      <c r="AQ60" s="1"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="39:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM62" s="1"/>
       <c r="AQ62" s="1"/>
     </row>
@@ -8334,21 +7752,20 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="AB2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
@@ -8364,7 +7781,7 @@
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -8403,46 +7820,46 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:33">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+    </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -8543,7 +7960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -8589,7 +8006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -8635,7 +8052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -8681,7 +8098,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -8727,7 +8144,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -8773,7 +8190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:33">
+    <row r="9" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -8819,7 +8236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:33">
+    <row r="10" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -8865,7 +8282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:33">
+    <row r="11" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -8911,7 +8328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:33">
+    <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -8957,7 +8374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:33">
+    <row r="13" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -9003,7 +8420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:33">
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -9049,7 +8466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:33">
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -9095,7 +8512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:33">
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -9141,7 +8558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:33">
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -9187,7 +8604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:33">
+    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -9233,7 +8650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:33">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -9279,7 +8696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:33">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -9325,7 +8742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:33">
+    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -9371,7 +8788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:33">
+    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -9417,7 +8834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:33">
+    <row r="23" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -9463,7 +8880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:33">
+    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -9509,7 +8926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:33">
+    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -9555,7 +8972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:33">
+    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -9601,7 +9018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:33">
+    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -9647,7 +9064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:33">
+    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -9693,7 +9110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:33">
+    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -9739,7 +9156,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:33">
+    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -9785,7 +9202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:33">
+    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -9831,7 +9248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:33">
+    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -9877,7 +9294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:33">
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -9923,7 +9340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:33">
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -9969,7 +9386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:33">
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -10015,7 +9432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:33">
+    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -10061,7 +9478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:33">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -10107,7 +9524,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:33">
+    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -10153,7 +9570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:33">
+    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -10199,7 +9616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:33">
+    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -10245,7 +9662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:33">
+    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -10291,7 +9708,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:33">
+    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -10337,7 +9754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:33">
+    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -10383,7 +9800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:33">
+    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -10429,7 +9846,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:33">
+    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -10475,7 +9892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:33">
+    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -10521,7 +9938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:33">
+    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -10567,7 +9984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:33">
+    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -10613,7 +10030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:33">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -10658,8 +10075,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:33">
+      <c r="AM49" s="1"/>
+      <c r="AQ49" s="1"/>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -10704,8 +10123,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:33">
+      <c r="AM50" s="1"/>
+      <c r="AQ50" s="1"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -10750,8 +10171,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:33">
+      <c r="AM51" s="1"/>
+      <c r="AQ51" s="1"/>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -10796,8 +10219,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:33">
+      <c r="AM52" s="1"/>
+      <c r="AQ52" s="1"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -10842,8 +10267,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:33">
+      <c r="AM53" s="1"/>
+      <c r="AQ53" s="1"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -10888,8 +10315,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:33">
+      <c r="AM54" s="1"/>
+      <c r="AQ54" s="1"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>52</v>
       </c>
@@ -10934,8 +10363,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:33">
+      <c r="AM55" s="1"/>
+      <c r="AQ55" s="1"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>53</v>
       </c>
@@ -10980,8 +10411,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:33">
+      <c r="AM56" s="1"/>
+      <c r="AQ56" s="1"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>54</v>
       </c>
@@ -11026,8 +10459,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:33">
+      <c r="AM57" s="1"/>
+      <c r="AQ57" s="1"/>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>55</v>
       </c>
@@ -11072,8 +10507,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:33">
+      <c r="AM58" s="1"/>
+      <c r="AQ58" s="1"/>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>56</v>
       </c>
@@ -11118,8 +10555,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:33">
+      <c r="AM59" s="1"/>
+      <c r="AQ59" s="1"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>48</v>
       </c>
@@ -11248,32 +10687,34 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="39:43">
+      <c r="AM60" s="1"/>
+      <c r="AQ60" s="1"/>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM61" s="1"/>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="39:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM62" s="1"/>
       <c r="AQ62" s="1"/>
     </row>
-    <row r="63" spans="39:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM63" s="1"/>
       <c r="AQ63" s="1"/>
     </row>
-    <row r="64" spans="39:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
       <c r="AM64" s="1"/>
       <c r="AQ64" s="1"/>
     </row>
-    <row r="65" spans="39:43">
+    <row r="65" spans="39:43" x14ac:dyDescent="0.15">
       <c r="AM65" s="1"/>
       <c r="AQ65" s="1"/>
     </row>
-    <row r="66" spans="39:43">
+    <row r="66" spans="39:43" x14ac:dyDescent="0.15">
       <c r="AM66" s="1"/>
       <c r="AQ66" s="1"/>
     </row>
-    <row r="67" spans="39:43">
+    <row r="67" spans="39:43" x14ac:dyDescent="0.15">
       <c r="AM67" s="1"/>
       <c r="AQ67" s="1"/>
     </row>
@@ -11281,21 +10722,20 @@
   <mergeCells count="1">
     <mergeCell ref="B2:AG2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
@@ -11305,7 +10745,7 @@
     <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11332,30 +10772,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -11408,7 +10848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -11457,7 +10897,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -11492,7 +10932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -11527,7 +10967,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -11562,7 +11002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -11597,7 +11037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -11632,7 +11072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -11667,7 +11107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -11702,7 +11142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -11737,7 +11177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -11772,7 +11212,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -11807,7 +11247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -11842,7 +11282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -11877,7 +11317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -11912,7 +11352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -11947,7 +11387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -11982,7 +11422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -12017,7 +11457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -12052,7 +11492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -12087,7 +11527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -12122,7 +11562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -12159,7 +11599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -12196,7 +11636,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -12233,7 +11673,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -12270,7 +11710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -12307,7 +11747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -12344,7 +11784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -12381,7 +11821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -12416,7 +11856,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -12451,7 +11891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -12486,7 +11926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -12523,7 +11963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -12560,7 +12000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -12597,7 +12037,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -12634,7 +12074,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -12671,7 +12111,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -12708,7 +12148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -12745,7 +12185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -12782,7 +12222,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -12819,7 +12259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -12856,7 +12296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -12893,7 +12333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -12930,7 +12370,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -12967,7 +12407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -13004,7 +12444,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -13041,7 +12481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -13078,7 +12518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>135</v>
       </c>
@@ -13115,7 +12555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
@@ -13152,7 +12592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>138</v>
       </c>
@@ -13189,7 +12629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>140</v>
       </c>
@@ -13226,7 +12666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>143</v>
       </c>
@@ -13263,7 +12703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>144</v>
       </c>
@@ -13300,7 +12740,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>145</v>
       </c>
@@ -13337,7 +12777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>147</v>
       </c>
@@ -13374,7 +12814,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>149</v>
       </c>
@@ -13411,7 +12851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -13448,7 +12888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>151</v>
       </c>
@@ -13483,184 +12923,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -13668,7 +13108,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -13731,7 +13171,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -13794,7 +13234,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -13856,7 +13296,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -13905,7 +13345,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -13968,10 +13408,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -13995,7 +13435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -14008,7 +13448,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -14029,7 +13469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -14042,7 +13482,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -14063,7 +13503,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -14076,7 +13516,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -14097,7 +13537,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -14119,7 +13559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="16364:16384">
+    <row r="90" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ90" s="2"/>
       <c r="XEK90" s="2"/>
       <c r="XEL90" s="2"/>
@@ -14142,7 +13582,7 @@
       <c r="XFC90" s="2"/>
       <c r="XFD90" s="2"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="16364:16384">
+    <row r="96" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ96" s="2"/>
       <c r="XEK96" s="2"/>
       <c r="XEL96" s="2"/>
@@ -14165,7 +13605,7 @@
       <c r="XFC96" s="2"/>
       <c r="XFD96" s="2"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="16364:16384">
+    <row r="104" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ104" s="2"/>
       <c r="XEK104" s="2"/>
       <c r="XEL104" s="2"/>
@@ -14193,32 +13633,29 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>153</v>
       </c>
       <c r="B1">
-        <v>43432.4036458912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>43432.403645891201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -14226,7 +13663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -14234,7 +13671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -14242,7 +13679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -14250,7 +13687,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -14258,7 +13695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -14266,7 +13703,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -14274,7 +13711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -14282,7 +13719,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -14290,7 +13727,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -14299,21 +13736,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1" collapsed="1"/>
@@ -14323,7 +13759,7 @@
     <col min="16364" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14350,30 +13786,30 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -14426,7 +13862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -14475,7 +13911,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>52</v>
       </c>
@@ -14508,7 +13944,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -14541,7 +13977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
@@ -14574,7 +14010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
@@ -14607,7 +14043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -14640,7 +14076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -14673,7 +14109,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -14706,7 +14142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -14739,7 +14175,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -14772,7 +14208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -14805,7 +14241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -14838,7 +14274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -14871,7 +14307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>74</v>
       </c>
@@ -14904,7 +14340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>76</v>
       </c>
@@ -14937,7 +14373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>78</v>
       </c>
@@ -14970,7 +14406,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -15003,7 +14439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -15036,7 +14472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>84</v>
       </c>
@@ -15069,7 +14505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>86</v>
       </c>
@@ -15102,7 +14538,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>88</v>
       </c>
@@ -15135,7 +14571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>90</v>
       </c>
@@ -15168,7 +14604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>91</v>
       </c>
@@ -15201,7 +14637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>92</v>
       </c>
@@ -15234,7 +14670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>94</v>
       </c>
@@ -15267,7 +14703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
@@ -15300,7 +14736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>97</v>
       </c>
@@ -15333,7 +14769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -15366,7 +14802,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>101</v>
       </c>
@@ -15399,7 +14835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -15432,7 +14868,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>103</v>
       </c>
@@ -15465,7 +14901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>105</v>
       </c>
@@ -15498,7 +14934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -15531,7 +14967,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -15564,7 +15000,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -15597,7 +15033,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
@@ -15630,7 +15066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
@@ -15663,7 +15099,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -15696,7 +15132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -15729,7 +15165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -15762,7 +15198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -15795,7 +15231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
@@ -15828,7 +15264,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>128</v>
       </c>
@@ -15861,7 +15297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>130</v>
       </c>
@@ -15894,7 +15330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -15927,7 +15363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -15960,7 +15396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="50" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>135</v>
       </c>
@@ -15993,7 +15429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="51" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
@@ -16026,7 +15462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="52" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>138</v>
       </c>
@@ -16059,7 +15495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="53" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>140</v>
       </c>
@@ -16092,7 +15528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="54" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>143</v>
       </c>
@@ -16125,7 +15561,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="55" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>144</v>
       </c>
@@ -16158,7 +15594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="56" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>145</v>
       </c>
@@ -16191,7 +15627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="57" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>147</v>
       </c>
@@ -16224,7 +15660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="58" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>149</v>
       </c>
@@ -16257,7 +15693,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="59" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>150</v>
       </c>
@@ -16290,7 +15726,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="60" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>151</v>
       </c>
@@ -16323,184 +15759,184 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="61" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="8" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
+        <f t="shared" ref="B61:H61" ca="1" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="8" t="e">
-        <f ca="1" t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
+        <f t="shared" ref="J61:P61" ca="1" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="8">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="8" t="e">
-        <f ca="1" t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="62" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="8" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
+        <f t="shared" ref="B62:H62" ca="1" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="8" t="e">
-        <f ca="1" t="shared" si="6"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
+        <f t="shared" ref="J62:P62" ca="1" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O62" s="8">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="P62" s="8" t="e">
-        <f ca="1" t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="63" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="9" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
+        <f t="shared" ref="B63:G63" ca="1" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G63" s="9" t="e">
-        <f ca="1" t="shared" si="8"/>
+        <f t="shared" ca="1" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
+        <f t="shared" ref="J63:O63" ca="1" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="9" t="e">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O63" s="9" t="str">
-        <f ca="1" t="shared" si="9"/>
+        <f t="shared" ca="1" si="9"/>
         <v>↑0↓2</v>
       </c>
       <c r="P63" s="9" t="s">
@@ -16508,7 +15944,7 @@
       </c>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
@@ -16571,7 +16007,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>32</v>
       </c>
@@ -16634,7 +16070,7 @@
       </c>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>12</v>
       </c>
@@ -16696,7 +16132,7 @@
       </c>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>33</v>
       </c>
@@ -16745,7 +16181,7 @@
       </c>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="68" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
@@ -16808,10 +16244,10 @@
       </c>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I69" s="12"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>35</v>
@@ -16835,7 +16271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C71" s="7" t="s">
         <v>37</v>
       </c>
@@ -16848,7 +16284,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F71" s="11" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
+        <f t="shared" ref="F71:F73" ca="1" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G71" s="11"/>
@@ -16869,7 +16305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C72" s="7" t="s">
         <v>39</v>
       </c>
@@ -16882,7 +16318,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F72" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G72" s="7"/>
@@ -16903,7 +16339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
@@ -16916,7 +16352,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F73" s="11" t="e">
-        <f ca="1" t="shared" si="18"/>
+        <f t="shared" ca="1" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G73" s="7"/>
@@ -16937,7 +16373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -16959,7 +16395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="16364:16384">
+    <row r="90" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ90" s="2"/>
       <c r="XEK90" s="2"/>
       <c r="XEL90" s="2"/>
@@ -16982,7 +16418,7 @@
       <c r="XFC90" s="2"/>
       <c r="XFD90" s="2"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="16364:16384">
+    <row r="96" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ96" s="2"/>
       <c r="XEK96" s="2"/>
       <c r="XEL96" s="2"/>
@@ -17005,7 +16441,7 @@
       <c r="XFC96" s="2"/>
       <c r="XFD96" s="2"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="16364:16384">
+    <row r="104" spans="16364:16384" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="XEJ104" s="2"/>
       <c r="XEK104" s="2"/>
       <c r="XEL104" s="2"/>
@@ -17033,8 +16469,8 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="_model" sheetId="1" r:id="rId1"/>
+    <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="7#焦侧炉温管控(月)从动态管控系统读取或计算" sheetId="2" r:id="rId2"/>
     <sheet name="7#机侧炉温管控(月)从动态管控系统读取或计算" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -261,11 +261,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -289,10 +289,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,14 +343,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,53 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,30 +411,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,16 +431,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,31 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +471,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,25 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,13 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,85 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,25 +700,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,32 +738,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,16 +781,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,140 +814,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -985,16 +985,13 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,8 +1735,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1749,157 +1746,157 @@
     <col min="3" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
     <col min="9" max="16363" width="9" style="1"/>
-    <col min="16364" max="16384" width="9" style="18"/>
+    <col min="16364" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="str">
+      <c r="B1" s="19" t="str">
         <f>IF(_metadata!B4="","",_metadata!B4)</f>
         <v>2018/12/13</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="24"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A5" s="8"/>
@@ -3767,57 +3764,57 @@
       <c r="A63" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="23" t="e">
+      <c r="B63" s="22" t="e">
         <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="23" t="e">
+      <c r="C63" s="22" t="e">
         <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D63" s="23" t="e">
+      <c r="D63" s="22" t="e">
         <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="23" t="e">
+      <c r="E63" s="22" t="e">
         <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="23" t="e">
+      <c r="F63" s="22" t="e">
         <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="23" t="e">
+      <c r="G63" s="22" t="e">
         <f ca="1" t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23" t="e">
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22" t="e">
         <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K63" s="23" t="e">
+      <c r="K63" s="22" t="e">
         <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L63" s="23" t="e">
+      <c r="L63" s="22" t="e">
         <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M63" s="23" t="e">
+      <c r="M63" s="22" t="e">
         <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N63" s="23" t="e">
+      <c r="N63" s="22" t="e">
         <f ca="1" t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O63" s="23" t="str">
+      <c r="O63" s="22" t="str">
         <f ca="1" t="shared" si="9"/>
         <v>↑0↓2</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P63" s="22" t="s">
         <v>30</v>
       </c>
       <c r="Q63" s="8"/>
@@ -4123,7 +4120,7 @@
       <c r="Q68" s="8"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
-      <c r="I69" s="26"/>
+      <c r="I69" s="25"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C70" s="8"/>
@@ -4153,19 +4150,19 @@
       <c r="C71" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="25" t="e">
+      <c r="D71" s="24" t="e">
         <f ca="1">(56*2-B$61-B$62-J$61-J$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E71" s="25" t="e">
+      <c r="E71" s="24" t="e">
         <f ca="1">(56*2-C$61-C$62-K$61-K$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F71" s="25" t="e">
+      <c r="F71" s="24" t="e">
         <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" s="25"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
         <v>38</v>
@@ -4187,15 +4184,15 @@
       <c r="C72" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="25" t="e">
+      <c r="D72" s="24" t="e">
         <f ca="1">(56*2-D$61-D$62-L$61-L$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="25" t="e">
+      <c r="E72" s="24" t="e">
         <f ca="1">(56*2-E$61-E$62-M$61-M$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F72" s="25" t="e">
+      <c r="F72" s="24" t="e">
         <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -4221,15 +4218,15 @@
       <c r="C73" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="25" t="e">
+      <c r="D73" s="24" t="e">
         <f ca="1">(56*2-F$61-F$62-N$61-N$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="25" t="e">
+      <c r="E73" s="24" t="e">
         <f ca="1">(56*2-G$61-G$62-O$61-O$62)/(56*2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F73" s="25" t="e">
+      <c r="F73" s="24" t="e">
         <f ca="1" t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -4266,81 +4263,81 @@
       <c r="I74" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="25"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="25" t="e">
+      <c r="L74" s="24" t="e">
         <f>(2*6-SUM(B68:P68))/(2*6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ90" s="18"/>
-      <c r="XEK90" s="18"/>
-      <c r="XEL90" s="18"/>
-      <c r="XEM90" s="18"/>
-      <c r="XEN90" s="18"/>
-      <c r="XEO90" s="18"/>
-      <c r="XEP90" s="18"/>
-      <c r="XEQ90" s="18"/>
-      <c r="XER90" s="18"/>
-      <c r="XES90" s="18"/>
-      <c r="XET90" s="18"/>
-      <c r="XEU90" s="18"/>
-      <c r="XEV90" s="18"/>
-      <c r="XEW90" s="18"/>
-      <c r="XEX90" s="18"/>
-      <c r="XEY90" s="18"/>
-      <c r="XEZ90" s="18"/>
-      <c r="XFA90" s="18"/>
-      <c r="XFB90" s="18"/>
-      <c r="XFC90" s="18"/>
-      <c r="XFD90" s="18"/>
+      <c r="XEJ90" s="17"/>
+      <c r="XEK90" s="17"/>
+      <c r="XEL90" s="17"/>
+      <c r="XEM90" s="17"/>
+      <c r="XEN90" s="17"/>
+      <c r="XEO90" s="17"/>
+      <c r="XEP90" s="17"/>
+      <c r="XEQ90" s="17"/>
+      <c r="XER90" s="17"/>
+      <c r="XES90" s="17"/>
+      <c r="XET90" s="17"/>
+      <c r="XEU90" s="17"/>
+      <c r="XEV90" s="17"/>
+      <c r="XEW90" s="17"/>
+      <c r="XEX90" s="17"/>
+      <c r="XEY90" s="17"/>
+      <c r="XEZ90" s="17"/>
+      <c r="XFA90" s="17"/>
+      <c r="XFB90" s="17"/>
+      <c r="XFC90" s="17"/>
+      <c r="XFD90" s="17"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ96" s="18"/>
-      <c r="XEK96" s="18"/>
-      <c r="XEL96" s="18"/>
-      <c r="XEM96" s="18"/>
-      <c r="XEN96" s="18"/>
-      <c r="XEO96" s="18"/>
-      <c r="XEP96" s="18"/>
-      <c r="XEQ96" s="18"/>
-      <c r="XER96" s="18"/>
-      <c r="XES96" s="18"/>
-      <c r="XET96" s="18"/>
-      <c r="XEU96" s="18"/>
-      <c r="XEV96" s="18"/>
-      <c r="XEW96" s="18"/>
-      <c r="XEX96" s="18"/>
-      <c r="XEY96" s="18"/>
-      <c r="XEZ96" s="18"/>
-      <c r="XFA96" s="18"/>
-      <c r="XFB96" s="18"/>
-      <c r="XFC96" s="18"/>
-      <c r="XFD96" s="18"/>
+      <c r="XEJ96" s="17"/>
+      <c r="XEK96" s="17"/>
+      <c r="XEL96" s="17"/>
+      <c r="XEM96" s="17"/>
+      <c r="XEN96" s="17"/>
+      <c r="XEO96" s="17"/>
+      <c r="XEP96" s="17"/>
+      <c r="XEQ96" s="17"/>
+      <c r="XER96" s="17"/>
+      <c r="XES96" s="17"/>
+      <c r="XET96" s="17"/>
+      <c r="XEU96" s="17"/>
+      <c r="XEV96" s="17"/>
+      <c r="XEW96" s="17"/>
+      <c r="XEX96" s="17"/>
+      <c r="XEY96" s="17"/>
+      <c r="XEZ96" s="17"/>
+      <c r="XFA96" s="17"/>
+      <c r="XFB96" s="17"/>
+      <c r="XFC96" s="17"/>
+      <c r="XFD96" s="17"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ104" s="18"/>
-      <c r="XEK104" s="18"/>
-      <c r="XEL104" s="18"/>
-      <c r="XEM104" s="18"/>
-      <c r="XEN104" s="18"/>
-      <c r="XEO104" s="18"/>
-      <c r="XEP104" s="18"/>
-      <c r="XEQ104" s="18"/>
-      <c r="XER104" s="18"/>
-      <c r="XES104" s="18"/>
-      <c r="XET104" s="18"/>
-      <c r="XEU104" s="18"/>
-      <c r="XEV104" s="18"/>
-      <c r="XEW104" s="18"/>
-      <c r="XEX104" s="18"/>
-      <c r="XEY104" s="18"/>
-      <c r="XEZ104" s="18"/>
-      <c r="XFA104" s="18"/>
-      <c r="XFB104" s="18"/>
-      <c r="XFC104" s="18"/>
-      <c r="XFD104" s="18"/>
+      <c r="XEJ104" s="17"/>
+      <c r="XEK104" s="17"/>
+      <c r="XEL104" s="17"/>
+      <c r="XEM104" s="17"/>
+      <c r="XEN104" s="17"/>
+      <c r="XEO104" s="17"/>
+      <c r="XEP104" s="17"/>
+      <c r="XEQ104" s="17"/>
+      <c r="XER104" s="17"/>
+      <c r="XES104" s="17"/>
+      <c r="XET104" s="17"/>
+      <c r="XEU104" s="17"/>
+      <c r="XEV104" s="17"/>
+      <c r="XEW104" s="17"/>
+      <c r="XEX104" s="17"/>
+      <c r="XEY104" s="17"/>
+      <c r="XEZ104" s="17"/>
+      <c r="XFA104" s="17"/>
+      <c r="XFB104" s="17"/>
+      <c r="XFC104" s="17"/>
+      <c r="XFD104" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4358,8 +4355,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF59" sqref="B4:AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4434,15 +4431,15 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="14" t="str">
+      <c r="O2" s="13" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v>2018年12月13日</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="15"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -4457,7 +4454,7 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="10"/>
-      <c r="AG2" s="17"/>
+      <c r="AG2" s="16"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:33">
       <c r="A3" s="4" t="s">
@@ -4564,1978 +4561,1840 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
       <c r="AG4" s="9" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:33">
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:33">
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:33">
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
       <c r="AG7" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:33">
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:33">
       <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:33">
       <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:33">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:33">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
       <c r="AG12" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:33">
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
       <c r="AG13" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:33">
       <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
       <c r="AG14" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:33">
       <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:33">
       <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:33">
       <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
       <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:33">
       <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:33">
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:33">
       <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
       <c r="AG21" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:33">
       <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
       <c r="AG22" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:33">
       <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
       <c r="AG23" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:33">
       <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
       <c r="AG24" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:33">
       <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
       <c r="AG25" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:33">
       <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
       <c r="AG26" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:33">
       <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
       <c r="AG27" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:33">
       <c r="A28" s="8">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
       <c r="AG28" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:33">
       <c r="A29" s="8">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
       <c r="AG29" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:33">
       <c r="A30" s="8">
         <v>27</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
       <c r="AG30" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:33">
       <c r="A31" s="8">
         <v>28</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
       <c r="AG31" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:33">
       <c r="A32" s="8">
         <v>29</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
       <c r="AG32" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:33">
       <c r="A33" s="8">
         <v>30</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
       <c r="AG33" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:33">
       <c r="A34" s="8">
         <v>31</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
       <c r="AG34" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:33">
       <c r="A35" s="8">
         <v>32</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
       <c r="AG35" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:33">
       <c r="A36" s="8">
         <v>33</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
       <c r="AG36" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:33">
       <c r="A37" s="8">
         <v>34</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
       <c r="AG37" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:33">
       <c r="A38" s="8">
         <v>35</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
       <c r="AG38" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:33">
       <c r="A39" s="8">
         <v>36</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
       <c r="AG39" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:33">
       <c r="A40" s="8">
         <v>37</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
       <c r="AG40" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:33">
       <c r="A41" s="8">
         <v>38</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
       <c r="AG41" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:33">
       <c r="A42" s="8">
         <v>39</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
       <c r="AG42" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:33">
       <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
       <c r="AG43" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:33">
       <c r="A44" s="8">
         <v>41</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
       <c r="AG44" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:33">
       <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
       <c r="AG45" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:33">
       <c r="A46" s="8">
         <v>43</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
       <c r="AG46" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:33">
       <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
       <c r="AG47" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:33">
       <c r="A48" s="8">
         <v>45</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
       <c r="AG48" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="8">
         <v>46</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
       <c r="AG49" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AQ49" s="1"/>
@@ -6544,43 +6403,40 @@
       <c r="A50" s="8">
         <v>47</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
       <c r="AG50" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AQ50" s="1"/>
@@ -6589,43 +6445,40 @@
       <c r="A51" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
       <c r="AG51" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AQ51" s="1"/>
@@ -6634,43 +6487,40 @@
       <c r="A52" s="8">
         <v>49</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
       <c r="AG52" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AQ52" s="1"/>
@@ -6679,43 +6529,40 @@
       <c r="A53" s="8">
         <v>50</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="13"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
       <c r="AG53" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM53" s="1"/>
       <c r="AQ53" s="1"/>
@@ -6724,43 +6571,40 @@
       <c r="A54" s="8">
         <v>51</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
       <c r="AG54" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM54" s="1"/>
       <c r="AQ54" s="1"/>
@@ -6769,43 +6613,40 @@
       <c r="A55" s="8">
         <v>52</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
       <c r="AG55" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AQ55" s="1"/>
@@ -6814,43 +6655,40 @@
       <c r="A56" s="8">
         <v>53</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
       <c r="AG56" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AQ56" s="1"/>
@@ -6859,43 +6697,40 @@
       <c r="A57" s="8">
         <v>54</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
       <c r="AG57" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM57" s="1"/>
       <c r="AQ57" s="1"/>
@@ -6904,43 +6739,40 @@
       <c r="A58" s="8">
         <v>55</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
       <c r="AG58" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM58" s="1"/>
       <c r="AQ58" s="1"/>
@@ -6949,43 +6781,40 @@
       <c r="A59" s="8">
         <v>56</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
       <c r="AG59" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM59" s="1"/>
       <c r="AQ59" s="1"/>
@@ -7044,7 +6873,7 @@
       </c>
       <c r="N60" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O60" s="9" t="e">
         <f t="shared" si="1"/>
@@ -7147,8 +6976,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7365,10 +7194,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -7389,7 +7215,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9" t="e">
         <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:33">
@@ -7408,10 +7234,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -7432,7 +7255,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:33">
@@ -7451,10 +7274,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -7475,7 +7295,7 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:33">
@@ -7494,10 +7314,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -7518,7 +7335,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:33">
@@ -7537,10 +7354,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -7561,7 +7375,7 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:33">
@@ -7580,10 +7394,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -7604,7 +7415,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:33">
@@ -7623,10 +7434,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -7647,7 +7455,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:33">
@@ -7666,10 +7474,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -7690,7 +7495,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:33">
@@ -7709,10 +7514,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -7733,7 +7535,7 @@
       <c r="AF12" s="9"/>
       <c r="AG12" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:33">
@@ -7752,10 +7554,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -7776,7 +7575,7 @@
       <c r="AF13" s="9"/>
       <c r="AG13" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:33">
@@ -7795,10 +7594,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -7819,7 +7615,7 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:33">
@@ -7838,10 +7634,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -7862,7 +7655,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:33">
@@ -7881,10 +7674,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -7905,7 +7695,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:33">
@@ -7924,10 +7714,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -7948,7 +7735,7 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
@@ -7967,10 +7754,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -7991,7 +7775,7 @@
       <c r="AF18" s="9"/>
       <c r="AG18" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:33">
@@ -8010,10 +7794,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -8034,7 +7815,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:33">
@@ -8053,10 +7834,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -8077,7 +7855,7 @@
       <c r="AF20" s="9"/>
       <c r="AG20" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:33">
@@ -8096,10 +7874,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -8120,7 +7895,7 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:33">
@@ -8139,10 +7914,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -8163,7 +7935,7 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:33">
@@ -8182,10 +7954,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -8206,7 +7975,7 @@
       <c r="AF23" s="9"/>
       <c r="AG23" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:33">
@@ -8225,10 +7994,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -8249,7 +8015,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:33">
@@ -8268,10 +8034,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -8292,7 +8055,7 @@
       <c r="AF25" s="9"/>
       <c r="AG25" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:33">
@@ -8311,10 +8074,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -8335,7 +8095,7 @@
       <c r="AF26" s="9"/>
       <c r="AG26" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:33">
@@ -8354,10 +8114,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -8378,7 +8135,7 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:33">
@@ -8397,10 +8154,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -8421,7 +8175,7 @@
       <c r="AF28" s="9"/>
       <c r="AG28" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:33">
@@ -8440,10 +8194,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -8464,7 +8215,7 @@
       <c r="AF29" s="9"/>
       <c r="AG29" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:33">
@@ -8483,10 +8234,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -8507,7 +8255,7 @@
       <c r="AF30" s="9"/>
       <c r="AG30" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:33">
@@ -8526,10 +8274,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -8550,7 +8295,7 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:33">
@@ -8569,10 +8314,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -8593,7 +8335,7 @@
       <c r="AF32" s="9"/>
       <c r="AG32" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:33">
@@ -8612,10 +8354,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -8636,7 +8375,7 @@
       <c r="AF33" s="9"/>
       <c r="AG33" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:33">
@@ -8655,10 +8394,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -8679,7 +8415,7 @@
       <c r="AF34" s="9"/>
       <c r="AG34" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:33">
@@ -8698,10 +8434,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -8722,7 +8455,7 @@
       <c r="AF35" s="9"/>
       <c r="AG35" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:33">
@@ -8741,10 +8474,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -8765,7 +8495,7 @@
       <c r="AF36" s="9"/>
       <c r="AG36" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:33">
@@ -8784,10 +8514,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -8808,7 +8535,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:33">
@@ -8827,10 +8554,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -8851,7 +8575,7 @@
       <c r="AF38" s="9"/>
       <c r="AG38" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:33">
@@ -8870,10 +8594,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -8894,7 +8615,7 @@
       <c r="AF39" s="9"/>
       <c r="AG39" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:33">
@@ -8913,10 +8634,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -8937,7 +8655,7 @@
       <c r="AF40" s="9"/>
       <c r="AG40" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:33">
@@ -8956,10 +8674,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -8980,7 +8695,7 @@
       <c r="AF41" s="9"/>
       <c r="AG41" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:33">
@@ -8999,10 +8714,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -9023,7 +8735,7 @@
       <c r="AF42" s="9"/>
       <c r="AG42" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:33">
@@ -9042,10 +8754,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -9066,7 +8775,7 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:33">
@@ -9085,10 +8794,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -9109,7 +8815,7 @@
       <c r="AF44" s="9"/>
       <c r="AG44" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:33">
@@ -9128,10 +8834,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -9152,7 +8855,7 @@
       <c r="AF45" s="9"/>
       <c r="AG45" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:33">
@@ -9171,10 +8874,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
@@ -9195,7 +8895,7 @@
       <c r="AF46" s="9"/>
       <c r="AG46" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:33">
@@ -9214,10 +8914,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -9238,7 +8935,7 @@
       <c r="AF47" s="9"/>
       <c r="AG47" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:33">
@@ -9257,10 +8954,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -9281,7 +8975,7 @@
       <c r="AF48" s="9"/>
       <c r="AG48" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -9300,10 +8994,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
@@ -9324,7 +9015,7 @@
       <c r="AF49" s="9"/>
       <c r="AG49" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AQ49" s="1"/>
@@ -9345,10 +9036,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
@@ -9369,7 +9057,7 @@
       <c r="AF50" s="9"/>
       <c r="AG50" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM50" s="1"/>
       <c r="AQ50" s="1"/>
@@ -9390,10 +9078,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
@@ -9414,7 +9099,7 @@
       <c r="AF51" s="9"/>
       <c r="AG51" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM51" s="1"/>
       <c r="AQ51" s="1"/>
@@ -9435,10 +9120,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
@@ -9459,7 +9141,7 @@
       <c r="AF52" s="9"/>
       <c r="AG52" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="1"/>
       <c r="AQ52" s="1"/>
@@ -9480,10 +9162,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
@@ -9504,7 +9183,7 @@
       <c r="AF53" s="9"/>
       <c r="AG53" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM53" s="1"/>
       <c r="AQ53" s="1"/>
@@ -9525,10 +9204,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
@@ -9549,7 +9225,7 @@
       <c r="AF54" s="9"/>
       <c r="AG54" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM54" s="1"/>
       <c r="AQ54" s="1"/>
@@ -9570,10 +9246,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -9594,7 +9267,7 @@
       <c r="AF55" s="9"/>
       <c r="AG55" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM55" s="1"/>
       <c r="AQ55" s="1"/>
@@ -9615,10 +9288,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
@@ -9639,7 +9309,7 @@
       <c r="AF56" s="9"/>
       <c r="AG56" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AQ56" s="1"/>
@@ -9660,10 +9330,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
@@ -9684,7 +9351,7 @@
       <c r="AF57" s="9"/>
       <c r="AG57" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM57" s="1"/>
       <c r="AQ57" s="1"/>
@@ -9705,10 +9372,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -9729,7 +9393,7 @@
       <c r="AF58" s="9"/>
       <c r="AG58" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM58" s="1"/>
       <c r="AQ58" s="1"/>
@@ -9750,10 +9414,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="9" t="e">
-        <f>IF(#REF!="","",#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
@@ -9774,7 +9435,7 @@
       <c r="AF59" s="9"/>
       <c r="AG59" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM59" s="1"/>
       <c r="AQ59" s="1"/>
@@ -9833,7 +9494,7 @@
       </c>
       <c r="N60" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O60" s="9" t="e">
         <f t="shared" si="1"/>

--- a/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
@@ -262,9 +262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="23">
@@ -289,6 +289,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -299,6 +307,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,22 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -349,34 +349,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,17 +373,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,13 +433,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,13 +453,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,79 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,25 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,41 +699,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,13 +734,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +769,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,136 +814,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:AQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF59" sqref="B4:AF59"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
+++ b/excel/finished/焦化/CK67-7#炉温记录报表设计.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="_model" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="_model" sheetId="1" r:id="rId1"/>
     <sheet name="7#焦侧炉温管控(月)从动态管控系统读取或计算" sheetId="2" r:id="rId2"/>
     <sheet name="7#机侧炉温管控(月)从动态管控系统读取或计算" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -28,10 +28,10 @@
     <t>CO7</t>
   </si>
   <si>
-    <t>机侧back5=1</t>
+    <t>机侧</t>
   </si>
   <si>
-    <t>焦侧back5=2</t>
+    <t>焦侧</t>
   </si>
   <si>
     <t>燃烧室号</t>
@@ -59,45 +59,6 @@
   </si>
   <si>
     <t>差值</t>
-  </si>
-  <si>
-    <t>rlno</t>
-  </si>
-  <si>
-    <t>attr1</t>
-  </si>
-  <si>
-    <t>attr2</t>
-  </si>
-  <si>
-    <t>attr3</t>
-  </si>
-  <si>
-    <t>attr4</t>
-  </si>
-  <si>
-    <t>attr5</t>
-  </si>
-  <si>
-    <t>attr6</t>
-  </si>
-  <si>
-    <t>attr7</t>
-  </si>
-  <si>
-    <t>attr8</t>
-  </si>
-  <si>
-    <t>attr9</t>
-  </si>
-  <si>
-    <t>attr10</t>
-  </si>
-  <si>
-    <t>attr11</t>
-  </si>
-  <si>
-    <t>attr12</t>
   </si>
   <si>
     <t>上超标&gt;20</t>
@@ -168,103 +129,16 @@
   <si>
     <t>7#机侧</t>
   </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>DateTime1</t>
-  </si>
-  <si>
-    <t>2018年12月13日</t>
-  </si>
-  <si>
-    <t>DateTime2</t>
-  </si>
-  <si>
-    <t>12月13日</t>
-  </si>
-  <si>
-    <t>DateTime3</t>
-  </si>
-  <si>
-    <t>2018/12/13</t>
-  </si>
-  <si>
-    <t>DateTime4</t>
-  </si>
-  <si>
-    <t>12/13</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>CK67-7#炉温记录报表</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\焦化\CK67-7#炉温记录报表设计.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2018-12-13</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:51:02</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:51:03</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\焦化\日报表\CK67-7#炉温记录报表_2018-12-13_14.xlsx</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="23">
@@ -289,6 +163,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -297,16 +250,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,66 +291,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,34 +311,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -453,7 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,37 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,13 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,37 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,37 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +593,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,17 +627,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,49 +670,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,136 +688,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1092,13 +966,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>37351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>595512</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1108,7 +982,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14290675" y="5828030"/>
+          <a:off x="14290675" y="5685155"/>
           <a:ext cx="4687570" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1284,13 +1158,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>37351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>595512</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1300,7 +1174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15662275" y="5656580"/>
+          <a:off x="15662275" y="5513705"/>
           <a:ext cx="4687570" cy="1677670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,10 +1607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD104"/>
+  <dimension ref="A1:XFD103"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I59"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1755,7 +1629,7 @@
       </c>
       <c r="B1" s="19" t="str">
         <f>IF(_metadata!B4="","",_metadata!B4)</f>
-        <v>2018/12/13</v>
+        <v/>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1800,7 +1674,7 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1853,52 +1727,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="str">
+        <f t="shared" ref="H4:H35" si="0">IF(B4="","",AVERAGE(B4:G4))</f>
+        <v/>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f>IF(H4="","",H4-H$64)</f>
+        <v/>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="str">
+        <f t="shared" ref="P4:P35" si="1">IF(J4="","",AVERAGE(J4:O4))</f>
+        <v/>
+      </c>
+      <c r="Q4" s="9" t="str">
+        <f t="shared" ref="Q4:Q35" si="2">IF(P4="","",P4-P$64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1906,13 +1766,13 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9" t="e">
-        <f t="shared" ref="H5:H60" si="0">AVERAGE(B5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="9" t="e">
-        <f t="shared" ref="I5:I60" si="1">H5-H$65</f>
-        <v>#DIV/0!</v>
+      <c r="H5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f t="shared" ref="I5:I36" si="3">IF(H5="","",H5-H$64)</f>
+        <v/>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1920,13 +1780,13 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="9" t="e">
-        <f t="shared" ref="P5:P60" si="2">AVERAGE(J5:O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="9" t="e">
-        <f t="shared" ref="Q5:Q60" si="3">P5-P$65</f>
-        <v>#DIV/0!</v>
+      <c r="P5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q5" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1937,13 +1797,13 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1951,13 +1811,13 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9" t="e">
+      <c r="P6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1968,13 +1828,13 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1982,13 +1842,13 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9" t="e">
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q7" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -1999,13 +1859,13 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2013,13 +1873,13 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9" t="e">
+      <c r="P8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q8" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2030,13 +1890,13 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2044,13 +1904,13 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9" t="e">
+      <c r="P9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2061,13 +1921,13 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -2075,13 +1935,13 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9" t="e">
+      <c r="P10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2092,13 +1952,13 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -2106,13 +1966,13 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9" t="e">
+      <c r="P11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2123,13 +1983,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -2137,13 +1997,13 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9" t="e">
+      <c r="P12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2154,13 +2014,13 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -2168,13 +2028,13 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9" t="e">
+      <c r="P13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2185,13 +2045,13 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2199,13 +2059,13 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="9" t="e">
+      <c r="P14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2216,13 +2076,13 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2230,13 +2090,13 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q15" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2247,13 +2107,13 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2261,13 +2121,13 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="9" t="e">
+      <c r="P16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q16" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2278,13 +2138,13 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2292,13 +2152,13 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9" t="e">
+      <c r="P17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q17" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2309,13 +2169,13 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2323,13 +2183,13 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="9" t="e">
+      <c r="P18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q18" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2340,13 +2200,13 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2354,13 +2214,13 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9" t="e">
+      <c r="P19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q19" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2371,13 +2231,13 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2385,13 +2245,13 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9" t="e">
+      <c r="P20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2402,13 +2262,13 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2416,13 +2276,13 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9" t="e">
+      <c r="P21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2433,13 +2293,13 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2447,13 +2307,13 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9" t="e">
+      <c r="P22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q22" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2464,13 +2324,13 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2478,13 +2338,13 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9" t="e">
+      <c r="P23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q23" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2495,13 +2355,13 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2509,13 +2369,13 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="9" t="e">
+      <c r="P24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q24" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2526,13 +2386,13 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2540,13 +2400,13 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9" t="e">
+      <c r="P25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2557,13 +2417,13 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2571,13 +2431,13 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="9" t="e">
+      <c r="P26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q26" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2588,13 +2448,13 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2602,13 +2462,13 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="9" t="e">
+      <c r="P27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q27" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2619,13 +2479,13 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2633,13 +2493,13 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9" t="e">
+      <c r="P28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q28" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2650,13 +2510,13 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2664,13 +2524,13 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q29" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2681,13 +2541,13 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2695,13 +2555,13 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="9" t="e">
+      <c r="P30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q30" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2712,13 +2572,13 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2726,13 +2586,13 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="9" t="e">
+      <c r="P31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q31" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2743,13 +2603,13 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2757,13 +2617,13 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="9" t="e">
+      <c r="P32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q32" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2774,13 +2634,13 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2788,13 +2648,13 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9" t="e">
+      <c r="P33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q33" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2805,13 +2665,13 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2819,13 +2679,13 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9" t="e">
+      <c r="P34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q34" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2836,13 +2696,13 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2850,13 +2710,13 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="9" t="e">
+      <c r="P35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q35" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2867,13 +2727,13 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H36" s="9" t="str">
+        <f t="shared" ref="H36:H59" si="4">IF(B36="","",AVERAGE(B36:G36))</f>
+        <v/>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2881,13 +2741,13 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P36" s="9" t="str">
+        <f t="shared" ref="P36:P59" si="5">IF(J36="","",AVERAGE(J36:O36))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="9" t="str">
+        <f t="shared" ref="Q36:Q59" si="6">IF(P36="","",P36-P$64)</f>
+        <v/>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2898,13 +2758,13 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="shared" ref="I37:I59" si="7">IF(H37="","",H37-H$64)</f>
+        <v/>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2912,13 +2772,13 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P37" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q37" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2929,13 +2789,13 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2943,13 +2803,13 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P38" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q38" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2960,13 +2820,13 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2974,13 +2834,13 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P39" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -2991,13 +2851,13 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H40" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3005,13 +2865,13 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P40" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q40" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3022,13 +2882,13 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H41" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3036,13 +2896,13 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q41" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P41" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q41" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3053,13 +2913,13 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H42" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3067,13 +2927,13 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3084,13 +2944,13 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H43" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3098,13 +2958,13 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P43" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3115,13 +2975,13 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H44" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3129,13 +2989,13 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P44" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3146,13 +3006,13 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H45" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3160,13 +3020,13 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q45" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P45" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3177,13 +3037,13 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H46" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I46" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3191,13 +3051,13 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P46" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q46" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3208,13 +3068,13 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H47" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I47" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3222,13 +3082,13 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P47" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q47" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3239,13 +3099,13 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H48" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I48" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3253,13 +3113,13 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P48" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q48" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3270,13 +3130,13 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I49" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3284,13 +3144,13 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q49" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q49" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3301,13 +3161,13 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H50" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I50" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3315,13 +3175,13 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q50" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P50" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q50" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3332,13 +3192,13 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H51" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I51" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3346,13 +3206,13 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q51" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P51" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q51" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3363,13 +3223,13 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H52" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I52" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3377,13 +3237,13 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q52" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P52" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q52" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3394,13 +3254,13 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H53" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I53" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3408,13 +3268,13 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q53" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P53" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q53" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3425,13 +3285,13 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H54" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I54" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3439,13 +3299,13 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q54" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P54" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q54" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3456,13 +3316,13 @@
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H55" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I55" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3470,13 +3330,13 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q55" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P55" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q55" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3487,13 +3347,13 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H56" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I56" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -3501,13 +3361,13 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q56" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P56" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q56" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3518,13 +3378,13 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H57" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I57" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -3532,13 +3392,13 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q57" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P57" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q57" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3549,13 +3409,13 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H58" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I58" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -3563,13 +3423,13 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q58" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P58" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q58" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" spans="1:17">
@@ -3580,13 +3440,13 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H59" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I59" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3594,750 +3454,720 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q59" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="P59" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q59" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="9" t="e">
+        <f ca="1">COUNTIF(B5:B58,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B65),COLUMN(B65)))+20))+IF(B4&gt;(B65+30),1,0)+IF(B59&gt;(B65+30),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="9" t="e">
+        <f ca="1" t="shared" ref="B60:H60" si="8">COUNTIF(C5:C58,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(C65),COLUMN(C65)))+20))+IF(C4&gt;(C65+30),1,0)+IF(C59&gt;(C65+30),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" s="9" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="9" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="9" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="9" t="e">
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="H60" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
+        <f ca="1" t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="e">
+        <f ca="1" t="shared" ref="J60:P60" si="9">COUNTIF(J5:J58,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J65),COLUMN(J65)))+20))+IF(J4&gt;(J65+30),1,0)+IF(J59&gt;(J65+30),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="9" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L60" s="9" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" s="9" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" s="9" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O60" s="9" t="e">
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="P60" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q60" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f ca="1" t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q60" s="9"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A61" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B61" s="9" t="e">
-        <f ca="1" t="shared" ref="B61:H61" si="4">COUNTIF(B6:B59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))+20))+IF(B5&gt;(B66+30),1,0)+IF(B60&gt;(B66+30),1,0)</f>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" ref="B61:H61" si="10">COUNTIF(B4:B59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B65),COLUMN(B65)))-20))+IF(B4&lt;(B65-30),1,0)+IF(B59&lt;(B65-30),1,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="D61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H61" s="9" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="10"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="e">
-        <f ca="1" t="shared" ref="J61:P61" si="5">COUNTIF(J6:J59,CONCATENATE("&gt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))+20))+IF(J5&gt;(J66+30),1,0)+IF(J60&gt;(J66+30),1,0)</f>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" ref="J61:P61" si="11">COUNTIF(J4:J59,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J65),COLUMN(J65)))-20))+IF(J4&lt;(J65-30),1,0)+IF(J59&lt;(J65-30),1,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K61" s="9" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="L61" s="9" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="M61" s="9" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="N61" s="9" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="9">
-        <f ca="1" t="shared" si="5"/>
-        <v>0</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O61" s="9" t="e">
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="P61" s="9" t="e">
-        <f ca="1" t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>#VALUE!</v>
       </c>
       <c r="Q61" s="9"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="9" t="e">
-        <f ca="1" t="shared" ref="B62:H62" si="6">COUNTIF(B5:B60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(B66),COLUMN(B66)))-20))+IF(B5&lt;(B66-30),1,0)+IF(B60&lt;(B66-30),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="9" t="e">
-        <f ca="1" t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9" t="e">
-        <f ca="1" t="shared" ref="J62:P62" si="7">COUNTIF(J5:J60,CONCATENATE("&lt;",INDIRECT(ADDRESS(ROW(J66),COLUMN(J66)))-20))+IF(J5&lt;(J66-30),1,0)+IF(J60&lt;(J66-30),1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="9" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="9" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="9" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="9" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="9">
-        <f ca="1" t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P62" s="9" t="e">
-        <f ca="1" t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q62" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B62" s="22" t="e">
+        <f ca="1" t="shared" ref="B62:G62" si="12">CONCATENATE("↑",B60,"↓",B61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="22" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D62" s="22" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E62" s="22" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" s="22" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G62" s="22" t="e">
+        <f ca="1" t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22" t="e">
+        <f ca="1" t="shared" ref="J62:O62" si="13">CONCATENATE("↑",J60,"↓",J61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" s="22" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L62" s="22" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" s="22" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" s="22" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O62" s="22" t="e">
+        <f ca="1" t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q62" s="8"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A63" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="22" t="e">
-        <f ca="1" t="shared" ref="B63:G63" si="8">CONCATENATE("↑",B61,"↓",B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C63" s="22" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D63" s="22" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E63" s="22" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="22" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="22" t="e">
-        <f ca="1" t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22" t="e">
-        <f ca="1" t="shared" ref="J63:O63" si="9">CONCATENATE("↑",J61,"↓",J62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="22" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="22" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="22" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N63" s="22" t="e">
-        <f ca="1" t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="22" t="str">
-        <f ca="1" t="shared" si="9"/>
-        <v>↑0↓2</v>
-      </c>
-      <c r="P63" s="22" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B63" s="9">
+        <f t="shared" ref="B63:H63" si="14">MAX(B4:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9">
+        <f t="shared" ref="J63:P63" si="15">MAX(J4:J59)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="64" s="1" customFormat="1" spans="1:17">
       <c r="A64" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B64" s="9">
-        <f t="shared" ref="B64:H64" si="10">MAX(B5:B60)</f>
+        <f t="shared" ref="B64:H64" si="16">MIN(B4:B59)</f>
         <v>0</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="9" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="H64" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9">
-        <f t="shared" ref="J64:P64" si="11">MAX(J5:J60)</f>
+        <f t="shared" ref="J64:P64" si="17">MIN(J4:J59)</f>
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P64" s="9" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="P64" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="65" s="1" customFormat="1" spans="1:17">
       <c r="A65" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="9">
-        <f t="shared" ref="B65:H65" si="12">MIN(B5:B60)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>12</v>
+      </c>
+      <c r="B65" s="9" t="str">
+        <f>IF(B4="","",AVERAGE(B4:B59))</f>
+        <v/>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f t="shared" ref="B65:P65" si="18">IF(C4="","",AVERAGE(C4:C59))</f>
+        <v/>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="I65" s="9"/>
-      <c r="J65" s="9">
-        <f t="shared" ref="J65:P65" si="13">MIN(J5:J60)</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="9" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="J65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P65" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="13.5" spans="1:17">
+    <row r="66" s="1" customFormat="1" spans="1:17">
       <c r="A66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="9" t="e">
-        <f t="shared" ref="B66:H66" si="14">AVERAGE(B5:B60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>20</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1250</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1250</v>
       </c>
       <c r="I66" s="9"/>
-      <c r="J66" s="9" t="e">
-        <f t="shared" ref="J66:N66" si="15">AVERAGE(J5:J60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L66" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M66" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N66" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="9">
-        <v>1250</v>
-      </c>
-      <c r="P66" s="9" t="e">
-        <f>AVERAGE(P5:P60)</f>
-        <v>#DIV/0!</v>
+      <c r="J66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="M66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="N66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="O66" s="8">
+        <v>1290</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1290</v>
       </c>
       <c r="Q66" s="8"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" spans="1:17">
       <c r="A67" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="C67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="D67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="E67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="F67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="G67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="H67" s="8">
-        <v>1250</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="K67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="L67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="M67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="N67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="O67" s="8">
-        <v>1290</v>
-      </c>
-      <c r="P67" s="8">
-        <v>1290</v>
+        <v>21</v>
+      </c>
+      <c r="B67" s="8" t="e">
+        <f t="shared" ref="B67:H67" si="19">IF(ABS(B65-B66)&gt;7,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8" t="e">
+        <f t="shared" ref="J67:P67" si="20">IF(ABS(J65-J66)&gt;7,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
       </c>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="13.5" spans="1:17">
-      <c r="A68" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="8" t="e">
-        <f t="shared" ref="B68:H68" si="16">IF(ABS(B66-B67)&gt;7,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="e">
-        <f t="shared" ref="J68:P68" si="17">IF(ABS(J66-J67)&gt;7,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K68" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N68" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="P68" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q68" s="8"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="13.5" spans="9:9">
-      <c r="I69" s="25"/>
+    <row r="68" s="1" customFormat="1" ht="13.5" spans="9:9">
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="13.5" spans="3:12">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="8"/>
+      <c r="C70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="24" t="e">
+        <f ca="1">(56*2-B$60-B$61-J$60-J$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="24" t="e">
+        <f ca="1">(56*2-C$60-C$61-K$60-K$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="24" t="e">
+        <f ca="1" t="shared" ref="F70:F72" si="21">AVERAGE(D70:E70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" s="24"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>12</v>
+      <c r="I70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="8" t="e">
+        <f>(2-B67-J67)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" s="8" t="e">
+        <f>(2-C67-K67)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L70" s="8" t="e">
+        <f t="shared" ref="L70:L72" si="22">AVERAGE(J70:K70)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C71" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D71" s="24" t="e">
-        <f ca="1">(56*2-B$61-B$62-J$61-J$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-D$60-D$61-L$60-L$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E71" s="24" t="e">
-        <f ca="1">(56*2-C$61-C$62-K$61-K$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-E$60-E$61-M$60-M$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F71" s="24" t="e">
-        <f ca="1" t="shared" ref="F71:F73" si="18">AVERAGE(D71:E71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="24"/>
+        <f ca="1" t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J71" s="8" t="e">
-        <f>(2-B68-J68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-D67-L67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K71" s="8" t="e">
-        <f>(2-C68-K68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-E67-M67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L71" s="8" t="e">
-        <f t="shared" ref="L71:L73" si="19">AVERAGE(J71:K71)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" spans="3:12">
       <c r="C72" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D72" s="24" t="e">
-        <f ca="1">(56*2-D$61-D$62-L$61-L$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-F$60-F$61-N$60-N$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E72" s="24" t="e">
-        <f ca="1">(56*2-E$61-E$62-M$61-M$62)/(56*2)</f>
-        <v>#DIV/0!</v>
+        <f ca="1">(56*2-G$60-G$61-O$60-O$61)/(56*2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F72" s="24" t="e">
-        <f ca="1" t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J72" s="8" t="e">
-        <f>(2-D68-L68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-F67-N67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K72" s="8" t="e">
-        <f>(2-E68-M68)/2</f>
-        <v>#DIV/0!</v>
+        <f>(2-G67-O67)/2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L72" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="24" t="e">
-        <f ca="1">(56*2-F$61-F$62-N$61-N$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E73" s="24" t="e">
-        <f ca="1">(56*2-G$61-G$62-O$61-O$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" s="24" t="e">
-        <f ca="1" t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" s="8" t="e">
-        <f>(2-F68-N68)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="8" t="e">
-        <f>(2-G68-O68)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L73" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="13.5" spans="3:12">
-      <c r="C74" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9" t="e">
-        <f ca="1">(56*2-H$61-H$62-P$61-P$62)/(56*2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="24"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="24" t="e">
-        <f>(2*6-SUM(B68:P68))/(2*6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ90" s="17"/>
-      <c r="XEK90" s="17"/>
-      <c r="XEL90" s="17"/>
-      <c r="XEM90" s="17"/>
-      <c r="XEN90" s="17"/>
-      <c r="XEO90" s="17"/>
-      <c r="XEP90" s="17"/>
-      <c r="XEQ90" s="17"/>
-      <c r="XER90" s="17"/>
-      <c r="XES90" s="17"/>
-      <c r="XET90" s="17"/>
-      <c r="XEU90" s="17"/>
-      <c r="XEV90" s="17"/>
-      <c r="XEW90" s="17"/>
-      <c r="XEX90" s="17"/>
-      <c r="XEY90" s="17"/>
-      <c r="XEZ90" s="17"/>
-      <c r="XFA90" s="17"/>
-      <c r="XFB90" s="17"/>
-      <c r="XFC90" s="17"/>
-      <c r="XFD90" s="17"/>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ96" s="17"/>
-      <c r="XEK96" s="17"/>
-      <c r="XEL96" s="17"/>
-      <c r="XEM96" s="17"/>
-      <c r="XEN96" s="17"/>
-      <c r="XEO96" s="17"/>
-      <c r="XEP96" s="17"/>
-      <c r="XEQ96" s="17"/>
-      <c r="XER96" s="17"/>
-      <c r="XES96" s="17"/>
-      <c r="XET96" s="17"/>
-      <c r="XEU96" s="17"/>
-      <c r="XEV96" s="17"/>
-      <c r="XEW96" s="17"/>
-      <c r="XEX96" s="17"/>
-      <c r="XEY96" s="17"/>
-      <c r="XEZ96" s="17"/>
-      <c r="XFA96" s="17"/>
-      <c r="XFB96" s="17"/>
-      <c r="XFC96" s="17"/>
-      <c r="XFD96" s="17"/>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="16364:16384">
-      <c r="XEJ104" s="17"/>
-      <c r="XEK104" s="17"/>
-      <c r="XEL104" s="17"/>
-      <c r="XEM104" s="17"/>
-      <c r="XEN104" s="17"/>
-      <c r="XEO104" s="17"/>
-      <c r="XEP104" s="17"/>
-      <c r="XEQ104" s="17"/>
-      <c r="XER104" s="17"/>
-      <c r="XES104" s="17"/>
-      <c r="XET104" s="17"/>
-      <c r="XEU104" s="17"/>
-      <c r="XEV104" s="17"/>
-      <c r="XEW104" s="17"/>
-      <c r="XEX104" s="17"/>
-      <c r="XEY104" s="17"/>
-      <c r="XEZ104" s="17"/>
-      <c r="XFA104" s="17"/>
-      <c r="XFB104" s="17"/>
-      <c r="XFC104" s="17"/>
-      <c r="XFD104" s="17"/>
+      <c r="C73" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="e">
+        <f ca="1">(56*2-H$60-H$61-P$60-P$61)/(56*2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="24" t="e">
+        <f>(2*6-SUM(B67:P67))/(2*6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="16364:16384">
+      <c r="XEJ89" s="17"/>
+      <c r="XEK89" s="17"/>
+      <c r="XEL89" s="17"/>
+      <c r="XEM89" s="17"/>
+      <c r="XEN89" s="17"/>
+      <c r="XEO89" s="17"/>
+      <c r="XEP89" s="17"/>
+      <c r="XEQ89" s="17"/>
+      <c r="XER89" s="17"/>
+      <c r="XES89" s="17"/>
+      <c r="XET89" s="17"/>
+      <c r="XEU89" s="17"/>
+      <c r="XEV89" s="17"/>
+      <c r="XEW89" s="17"/>
+      <c r="XEX89" s="17"/>
+      <c r="XEY89" s="17"/>
+      <c r="XEZ89" s="17"/>
+      <c r="XFA89" s="17"/>
+      <c r="XFB89" s="17"/>
+      <c r="XFC89" s="17"/>
+      <c r="XFD89" s="17"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="16364:16384">
+      <c r="XEJ95" s="17"/>
+      <c r="XEK95" s="17"/>
+      <c r="XEL95" s="17"/>
+      <c r="XEM95" s="17"/>
+      <c r="XEN95" s="17"/>
+      <c r="XEO95" s="17"/>
+      <c r="XEP95" s="17"/>
+      <c r="XEQ95" s="17"/>
+      <c r="XER95" s="17"/>
+      <c r="XES95" s="17"/>
+      <c r="XET95" s="17"/>
+      <c r="XEU95" s="17"/>
+      <c r="XEV95" s="17"/>
+      <c r="XEW95" s="17"/>
+      <c r="XEX95" s="17"/>
+      <c r="XEY95" s="17"/>
+      <c r="XEZ95" s="17"/>
+      <c r="XFA95" s="17"/>
+      <c r="XFB95" s="17"/>
+      <c r="XFC95" s="17"/>
+      <c r="XFD95" s="17"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="16364:16384">
+      <c r="XEJ103" s="17"/>
+      <c r="XEK103" s="17"/>
+      <c r="XEL103" s="17"/>
+      <c r="XEM103" s="17"/>
+      <c r="XEN103" s="17"/>
+      <c r="XEO103" s="17"/>
+      <c r="XEP103" s="17"/>
+      <c r="XEQ103" s="17"/>
+      <c r="XER103" s="17"/>
+      <c r="XES103" s="17"/>
+      <c r="XET103" s="17"/>
+      <c r="XEU103" s="17"/>
+      <c r="XEV103" s="17"/>
+      <c r="XEW103" s="17"/>
+      <c r="XEX103" s="17"/>
+      <c r="XEY103" s="17"/>
+      <c r="XEZ103" s="17"/>
+      <c r="XFA103" s="17"/>
+      <c r="XFB103" s="17"/>
+      <c r="XFC103" s="17"/>
+      <c r="XFD103" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4355,8 +4185,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4380,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4433,11 +4263,11 @@
       <c r="N2" s="10"/>
       <c r="O2" s="13" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v>2018年12月13日</v>
+        <v/>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="7"/>
@@ -4554,7 +4384,7 @@
         <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:33">
@@ -4593,7 +4423,7 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9" t="e">
-        <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B4:AF4)</f>
+        <f>AVERAGE(B4:AF4)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4633,7 +4463,7 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG4:AG59" si="0">AVERAGE(B5:AF5)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6821,7 +6651,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B60" s="9" t="e">
         <f t="shared" ref="B60:AF60" si="1">AVERAGE(B4:B59)</f>
@@ -6977,7 +6807,7 @@
   <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF59"/>
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7001,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -7055,11 +6885,11 @@
       <c r="O2" s="7"/>
       <c r="P2" s="10" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v>2018年12月13日</v>
+        <v/>
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -7175,7 +7005,7 @@
         <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:33">
@@ -9442,7 +9272,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B60" s="9" t="e">
         <f t="shared" ref="B60:S60" si="1">AVERAGE(B4:B59)</f>
@@ -9612,135 +9442,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>43447.6187962037</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
